--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1001204.132850464</v>
+        <v>-1001916.737324504</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058541</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>171.8758480566236</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.442510317672</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>123.5404834191009</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="G11" t="n">
-        <v>188.5623770505816</v>
+        <v>83.22388465436694</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>16.53078872718768</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.17968824550868</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.13476116065502</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673101</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.4530649701509</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>9.188502199810671</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1461,16 +1461,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>34.33539069212146</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J12" t="n">
-        <v>52.45818464705464</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,22 +1491,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.846506480668488</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>119.7764545478529</v>
       </c>
       <c r="S12" t="n">
         <v>13.25780256851665</v>
       </c>
       <c r="T12" t="n">
-        <v>36.64054962134804</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="U12" t="n">
         <v>58.89840834437492</v>
       </c>
       <c r="V12" t="n">
-        <v>188.5623770505816</v>
+        <v>62.31927159084699</v>
       </c>
       <c r="W12" t="n">
         <v>88.37493425245634</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.442510317672</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>188.5623770505816</v>
       </c>
       <c r="G14" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384199</v>
+        <v>62.66716559384196</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.5307887271877</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550871</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13476116065505</v>
+        <v>44.13476116065502</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>71.82086528673101</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>182.1357150295403</v>
+        <v>36.45688539896929</v>
       </c>
     </row>
     <row r="15">
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>148.3064894547531</v>
+        <v>9.188502199810671</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.846506480668488</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.25780256851668</v>
+        <v>13.25780256851665</v>
       </c>
       <c r="T15" t="n">
-        <v>36.64054962134807</v>
+        <v>36.64054962134804</v>
       </c>
       <c r="U15" t="n">
-        <v>58.89840834437495</v>
+        <v>58.89840834437492</v>
       </c>
       <c r="V15" t="n">
-        <v>62.31927159084702</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="W15" t="n">
-        <v>88.37493425245637</v>
+        <v>88.37493425245634</v>
       </c>
       <c r="X15" t="n">
-        <v>38.98326511491538</v>
+        <v>38.98326511491535</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.0546368094704</v>
+        <v>126.0394618660938</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650163</v>
+        <v>25.0935346565016</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412744</v>
+        <v>57.10576830412742</v>
       </c>
       <c r="T16" t="n">
-        <v>45.4312651160526</v>
+        <v>45.43126511605257</v>
       </c>
       <c r="U16" t="n">
-        <v>110.3268994226098</v>
+        <v>110.3268994226097</v>
       </c>
       <c r="V16" t="n">
-        <v>66.77936585989468</v>
+        <v>66.77936585989465</v>
       </c>
       <c r="W16" t="n">
         <v>111.9810577647801</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368731</v>
+        <v>43.58980608368728</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.8116234896132</v>
+        <v>38.81162348961317</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.66264858577216</v>
+        <v>76.6626485857721</v>
       </c>
       <c r="C17" t="n">
-        <v>52.78090558911765</v>
+        <v>52.78090558911759</v>
       </c>
       <c r="D17" t="n">
-        <v>40.34756785016612</v>
+        <v>40.34756785016606</v>
       </c>
       <c r="E17" t="n">
-        <v>74.05432026957499</v>
+        <v>74.05432026957493</v>
       </c>
       <c r="F17" t="n">
         <v>105.7746578479523</v>
@@ -1859,7 +1859,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H17" t="n">
-        <v>49.59336558194019</v>
+        <v>49.59336558194013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.45519181709085</v>
+        <v>23.45519181709079</v>
       </c>
       <c r="W17" t="n">
-        <v>40.47187203370572</v>
+        <v>40.47187203370567</v>
       </c>
       <c r="X17" t="n">
-        <v>62.35812250264496</v>
+        <v>62.3581225026449</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.86097562638872</v>
+        <v>84.86097562638867</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>39.24178256028094</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.45818464705464</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.846506480668484</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>40.3519534646769</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>188.5623770505816</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="Y18" t="n">
         <v>188.5623770505816</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>17.34131701649373</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>167.4812957592452</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="U21" t="n">
         <v>188.5623770505816</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>166.0857417061523</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="T24" t="n">
-        <v>188.5623770505817</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="W24" t="n">
-        <v>94.20569216482451</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>188.5623770505818</v>
       </c>
     </row>
     <row r="25">
@@ -2555,25 +2555,25 @@
         <v>160.6202637098006</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7385207131461</v>
+        <v>136.738520713146</v>
       </c>
       <c r="D26" t="n">
-        <v>124.3051829741946</v>
+        <v>124.3051829741945</v>
       </c>
       <c r="E26" t="n">
         <v>158.0119353936034</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7322729719808</v>
+        <v>189.7322729719807</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3708602775721</v>
+        <v>205.370860277572</v>
       </c>
       <c r="H26" t="n">
         <v>133.5509807059686</v>
       </c>
       <c r="I26" t="n">
-        <v>27.5298382503645</v>
+        <v>27.52983825036443</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.04236090203121</v>
+        <v>14.04236090203115</v>
       </c>
       <c r="T26" t="n">
-        <v>8.99743381717756</v>
+        <v>8.997433817177503</v>
       </c>
       <c r="U26" t="n">
-        <v>36.68353794325353</v>
+        <v>36.68353794325347</v>
       </c>
       <c r="V26" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411192</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4294871577342</v>
+        <v>124.4294871577341</v>
       </c>
       <c r="X26" t="n">
         <v>146.3157376266734</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8185907504172</v>
+        <v>168.8185907504171</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,10 +2643,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>53.5355402520817</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.503222277870577</v>
+        <v>1.50322227787052</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2280576689302</v>
+        <v>23.7610810008974</v>
       </c>
       <c r="V27" t="n">
-        <v>27.18194424736953</v>
+        <v>27.18194424736947</v>
       </c>
       <c r="W27" t="n">
-        <v>53.23760690897888</v>
+        <v>53.23760690897882</v>
       </c>
       <c r="X27" t="n">
-        <v>3.845937771437889</v>
+        <v>3.845937771437832</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.917309465992901</v>
+        <v>132.244702065155</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.96844096064995</v>
+        <v>21.96844096064989</v>
       </c>
       <c r="T28" t="n">
-        <v>10.29393777257511</v>
+        <v>10.29393777257505</v>
       </c>
       <c r="U28" t="n">
-        <v>75.18957207913228</v>
+        <v>75.18957207913222</v>
       </c>
       <c r="V28" t="n">
-        <v>31.64203851641719</v>
+        <v>31.64203851641713</v>
       </c>
       <c r="W28" t="n">
-        <v>76.84373042130261</v>
+        <v>76.84373042130255</v>
       </c>
       <c r="X28" t="n">
-        <v>8.452478740209813</v>
+        <v>8.452478740209756</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.674296146135703</v>
+        <v>3.674296146135646</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2795,13 @@
         <v>136.7385207131461</v>
       </c>
       <c r="D29" t="n">
-        <v>124.3051829741945</v>
+        <v>124.3051829741946</v>
       </c>
       <c r="E29" t="n">
         <v>158.0119353936034</v>
       </c>
       <c r="F29" t="n">
-        <v>189.7322729719807</v>
+        <v>189.7322729719808</v>
       </c>
       <c r="G29" t="n">
         <v>205.3708602775721</v>
@@ -2810,7 +2810,7 @@
         <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036446</v>
+        <v>27.5298382503645</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.04236090203119</v>
+        <v>14.04236090203121</v>
       </c>
       <c r="T29" t="n">
-        <v>8.997433817177523</v>
+        <v>8.99743381717756</v>
       </c>
       <c r="U29" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325353</v>
       </c>
       <c r="V29" t="n">
         <v>107.4128069411193</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4294871577341</v>
+        <v>124.4294871577342</v>
       </c>
       <c r="X29" t="n">
         <v>146.3157376266734</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.8185907504171</v>
+        <v>168.8185907504172</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>70.90329259477683</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.846506480668488</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.503222277870548</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U30" t="n">
-        <v>23.76108100089743</v>
+        <v>227.244668317818</v>
       </c>
       <c r="V30" t="n">
-        <v>27.1819442473695</v>
+        <v>27.18194424736953</v>
       </c>
       <c r="W30" t="n">
-        <v>53.23760690897885</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>3.845937771437889</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>9.917309465992901</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.96844096064992</v>
+        <v>21.96844096064995</v>
       </c>
       <c r="T31" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257511</v>
       </c>
       <c r="U31" t="n">
-        <v>75.18957207913225</v>
+        <v>75.18957207913228</v>
       </c>
       <c r="V31" t="n">
-        <v>31.64203851641716</v>
+        <v>31.64203851641719</v>
       </c>
       <c r="W31" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130261</v>
       </c>
       <c r="X31" t="n">
-        <v>8.452478740209784</v>
+        <v>8.452478740209813</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135703</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>160.6202637098006</v>
       </c>
       <c r="C32" t="n">
-        <v>136.7385207131461</v>
+        <v>136.738520713146</v>
       </c>
       <c r="D32" t="n">
         <v>124.3051829741945</v>
@@ -3041,7 +3041,7 @@
         <v>189.7322729719807</v>
       </c>
       <c r="G32" t="n">
-        <v>205.3708602775721</v>
+        <v>205.370860277572</v>
       </c>
       <c r="H32" t="n">
         <v>133.5509807059686</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.04236090203119</v>
+        <v>14.04236090203116</v>
       </c>
       <c r="T32" t="n">
-        <v>8.997433817177523</v>
+        <v>8.997433817177495</v>
       </c>
       <c r="U32" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325347</v>
       </c>
       <c r="V32" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411192</v>
       </c>
       <c r="W32" t="n">
         <v>124.4294871577341</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>26.7330929192549</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.503222277870548</v>
+        <v>1.503222277870521</v>
       </c>
       <c r="U33" t="n">
-        <v>23.76108100089743</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V33" t="n">
-        <v>27.1819442473695</v>
+        <v>123.3083111852188</v>
       </c>
       <c r="W33" t="n">
-        <v>53.23760690897885</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>3.845937771437832</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>9.917309465992844</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096064992</v>
+        <v>21.96844096064989</v>
       </c>
       <c r="T34" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257505</v>
       </c>
       <c r="U34" t="n">
-        <v>75.18957207913225</v>
+        <v>75.18957207913222</v>
       </c>
       <c r="V34" t="n">
-        <v>31.64203851641716</v>
+        <v>31.64203851641713</v>
       </c>
       <c r="W34" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130255</v>
       </c>
       <c r="X34" t="n">
-        <v>8.452478740209784</v>
+        <v>8.452478740209756</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135646</v>
       </c>
     </row>
     <row r="35">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3354,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>105.6552976442431</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3387,19 +3387,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.846506480668488</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>186.1484796087769</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -3582,16 +3582,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>40.10802794836719</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,22 +3630,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>260.4583944746288</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>11.52926926657186</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>31.30969613668294</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U42" t="n">
-        <v>19.12685169909374</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>25.70776865861438</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4056,28 +4056,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>47.16672463312334</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>52.45818464705464</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,13 +4098,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.846506480668481</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7086383504341</v>
+        <v>23.50389753565397</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>25.70776865861438</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>665.0054132387722</v>
+        <v>460.0087979967686</v>
       </c>
       <c r="C11" t="n">
-        <v>491.3934455048091</v>
+        <v>460.0087979967686</v>
       </c>
       <c r="D11" t="n">
-        <v>330.3404047798878</v>
+        <v>460.0087979967686</v>
       </c>
       <c r="E11" t="n">
-        <v>330.3404047798878</v>
+        <v>460.0087979967686</v>
       </c>
       <c r="F11" t="n">
-        <v>205.5520376898866</v>
+        <v>269.5417504709285</v>
       </c>
       <c r="G11" t="n">
-        <v>15.08499016404653</v>
+        <v>185.4772205170224</v>
       </c>
       <c r="H11" t="n">
         <v>15.08499016404653</v>
@@ -5039,22 +5039,22 @@
         <v>15.08499016404653</v>
       </c>
       <c r="J11" t="n">
-        <v>115.6457740567087</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K11" t="n">
-        <v>267.47113264009</v>
+        <v>183.4644117113182</v>
       </c>
       <c r="L11" t="n">
-        <v>314.244470870384</v>
+        <v>370.141164991394</v>
       </c>
       <c r="M11" t="n">
-        <v>395.1647815935358</v>
+        <v>556.8179182714698</v>
       </c>
       <c r="N11" t="n">
-        <v>470.5520315267739</v>
+        <v>632.205168204708</v>
       </c>
       <c r="O11" t="n">
-        <v>504.8287151602036</v>
+        <v>666.4818518381376</v>
       </c>
       <c r="P11" t="n">
         <v>666.4818518381376</v>
@@ -5066,25 +5066,25 @@
         <v>737.5517418112279</v>
       </c>
       <c r="S11" t="n">
-        <v>737.5517418112279</v>
+        <v>687.8752890379867</v>
       </c>
       <c r="T11" t="n">
-        <v>737.5517418112279</v>
+        <v>643.2947222090422</v>
       </c>
       <c r="U11" t="n">
-        <v>665.0054132387722</v>
+        <v>643.2947222090422</v>
       </c>
       <c r="V11" t="n">
-        <v>665.0054132387722</v>
+        <v>643.2947222090422</v>
       </c>
       <c r="W11" t="n">
-        <v>665.0054132387722</v>
+        <v>643.2947222090422</v>
       </c>
       <c r="X11" t="n">
-        <v>665.0054132387722</v>
+        <v>460.0087979967686</v>
       </c>
       <c r="Y11" t="n">
-        <v>665.0054132387722</v>
+        <v>460.0087979967686</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>272.8166998767388</v>
+        <v>132.8079422639273</v>
       </c>
       <c r="C12" t="n">
-        <v>263.5353845233947</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="D12" t="n">
-        <v>102.7552682844264</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="E12" t="n">
-        <v>102.7552682844264</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="F12" t="n">
-        <v>102.7552682844264</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="G12" t="n">
-        <v>68.07305546410171</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="H12" t="n">
-        <v>68.07305546410171</v>
+        <v>123.5266269105832</v>
       </c>
       <c r="I12" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J12" t="n">
         <v>15.08499016404653</v>
@@ -5127,43 +5127,43 @@
         <v>170.4486221681695</v>
       </c>
       <c r="M12" t="n">
-        <v>352.1703666486678</v>
+        <v>352.1703666486677</v>
       </c>
       <c r="N12" t="n">
-        <v>538.8471199287436</v>
+        <v>538.8471199287435</v>
       </c>
       <c r="O12" t="n">
-        <v>670.5904072110305</v>
+        <v>670.5904072110304</v>
       </c>
       <c r="P12" t="n">
         <v>754.2495082023265</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.3338450905402</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R12" t="n">
-        <v>747.3338450905402</v>
+        <v>633.2631904772226</v>
       </c>
       <c r="S12" t="n">
-        <v>733.9421253243618</v>
+        <v>619.8714707110441</v>
       </c>
       <c r="T12" t="n">
-        <v>696.9314691411819</v>
+        <v>429.4044231852041</v>
       </c>
       <c r="U12" t="n">
-        <v>637.438127379187</v>
+        <v>369.9110814232092</v>
       </c>
       <c r="V12" t="n">
-        <v>446.971079853347</v>
+        <v>306.9623222405355</v>
       </c>
       <c r="W12" t="n">
-        <v>357.7034694973304</v>
+        <v>217.6947118845189</v>
       </c>
       <c r="X12" t="n">
-        <v>318.326434027719</v>
+        <v>178.3176764149075</v>
       </c>
       <c r="Y12" t="n">
-        <v>272.8166998767388</v>
+        <v>132.8079422639273</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.08499016404653</v>
+        <v>15.79059153703782</v>
       </c>
       <c r="C13" t="n">
-        <v>15.08499016404653</v>
+        <v>27.54433520609489</v>
       </c>
       <c r="D13" t="n">
-        <v>15.08499016404653</v>
+        <v>60.35986428920098</v>
       </c>
       <c r="E13" t="n">
-        <v>15.08499016404653</v>
+        <v>60.35986428920098</v>
       </c>
       <c r="F13" t="n">
-        <v>15.08499016404653</v>
+        <v>99.36860372424849</v>
       </c>
       <c r="G13" t="n">
-        <v>15.08499016404653</v>
+        <v>108.9013385960985</v>
       </c>
       <c r="H13" t="n">
-        <v>15.08499016404653</v>
+        <v>121.2828644367062</v>
       </c>
       <c r="I13" t="n">
-        <v>15.08499016404653</v>
+        <v>134.6292662856166</v>
       </c>
       <c r="J13" t="n">
-        <v>15.08499016404653</v>
+        <v>134.6292662856166</v>
       </c>
       <c r="K13" t="n">
-        <v>15.08499016404653</v>
+        <v>205.2230617609407</v>
       </c>
       <c r="L13" t="n">
-        <v>159.8232296193046</v>
+        <v>349.9613012161986</v>
       </c>
       <c r="M13" t="n">
-        <v>311.428276371505</v>
+        <v>349.9613012161986</v>
       </c>
       <c r="N13" t="n">
-        <v>468.6318884260457</v>
+        <v>349.9613012161986</v>
       </c>
       <c r="O13" t="n">
-        <v>468.6318884260457</v>
+        <v>349.9613012161986</v>
       </c>
       <c r="P13" t="n">
         <v>468.6318884260457</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>459.3192524822337</v>
+        <v>600.2974760342908</v>
       </c>
       <c r="C14" t="n">
-        <v>459.3192524822337</v>
+        <v>600.2974760342908</v>
       </c>
       <c r="D14" t="n">
-        <v>459.3192524822337</v>
+        <v>439.2444353093695</v>
       </c>
       <c r="E14" t="n">
-        <v>459.3192524822337</v>
+        <v>439.2444353093695</v>
       </c>
       <c r="F14" t="n">
-        <v>268.8522049563936</v>
+        <v>248.7773877835294</v>
       </c>
       <c r="G14" t="n">
-        <v>78.3851574305536</v>
+        <v>248.7773877835294</v>
       </c>
       <c r="H14" t="n">
-        <v>78.3851574305536</v>
+        <v>78.38515743055358</v>
       </c>
       <c r="I14" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="J14" t="n">
-        <v>115.6457740567087</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K14" t="n">
-        <v>115.6457740567087</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L14" t="n">
-        <v>162.4191122870027</v>
+        <v>61.85832839434055</v>
       </c>
       <c r="M14" t="n">
-        <v>243.3394230101545</v>
+        <v>248.5350816744163</v>
       </c>
       <c r="N14" t="n">
-        <v>318.7266729433927</v>
+        <v>405.9196182443168</v>
       </c>
       <c r="O14" t="n">
-        <v>504.8287151602036</v>
+        <v>592.5963715243926</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4818518381376</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Q14" t="n">
         <v>754.2495082023265</v>
       </c>
       <c r="R14" t="n">
-        <v>737.5517418112278</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="S14" t="n">
-        <v>687.8752890379866</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="T14" t="n">
-        <v>643.2947222090421</v>
+        <v>709.668941373382</v>
       </c>
       <c r="U14" t="n">
-        <v>643.2947222090421</v>
+        <v>637.1226128009265</v>
       </c>
       <c r="V14" t="n">
-        <v>643.2947222090421</v>
+        <v>637.1226128009265</v>
       </c>
       <c r="W14" t="n">
-        <v>643.2947222090421</v>
+        <v>637.1226128009265</v>
       </c>
       <c r="X14" t="n">
-        <v>643.2947222090421</v>
+        <v>637.1226128009265</v>
       </c>
       <c r="Y14" t="n">
-        <v>459.3192524822337</v>
+        <v>600.2974760342908</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>400.3349882199049</v>
+        <v>197.9295093959762</v>
       </c>
       <c r="C15" t="n">
-        <v>250.530453417124</v>
+        <v>188.6481940426321</v>
       </c>
       <c r="D15" t="n">
-        <v>250.530453417124</v>
+        <v>188.6481940426321</v>
       </c>
       <c r="E15" t="n">
-        <v>250.530453417124</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F15" t="n">
-        <v>250.530453417124</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G15" t="n">
-        <v>250.530453417124</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H15" t="n">
-        <v>123.5266269105832</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I15" t="n">
         <v>15.08499016404653</v>
@@ -5376,31 +5376,31 @@
         <v>754.2495082023265</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.3338450905402</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R15" t="n">
-        <v>747.3338450905402</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="S15" t="n">
-        <v>733.9421253243618</v>
+        <v>740.8577884361481</v>
       </c>
       <c r="T15" t="n">
-        <v>696.9314691411819</v>
+        <v>703.8471322529682</v>
       </c>
       <c r="U15" t="n">
-        <v>637.438127379187</v>
+        <v>644.3537904909733</v>
       </c>
       <c r="V15" t="n">
-        <v>574.4893681965132</v>
+        <v>453.8867429651333</v>
       </c>
       <c r="W15" t="n">
-        <v>485.2217578404966</v>
+        <v>364.6191326091168</v>
       </c>
       <c r="X15" t="n">
-        <v>445.8447223708851</v>
+        <v>325.2420971395053</v>
       </c>
       <c r="Y15" t="n">
-        <v>400.3349882199049</v>
+        <v>197.9295093959762</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.79059153703779</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C16" t="n">
-        <v>27.54433520609483</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D16" t="n">
-        <v>60.35986428920089</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E16" t="n">
-        <v>96.64683732040783</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F16" t="n">
-        <v>135.6555767554553</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G16" t="n">
-        <v>145.1883116273053</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H16" t="n">
-        <v>157.569837467913</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I16" t="n">
-        <v>170.9162393168234</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J16" t="n">
-        <v>198.3562544639985</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K16" t="n">
-        <v>198.3562544639985</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L16" t="n">
-        <v>198.3562544639985</v>
+        <v>159.8232296193045</v>
       </c>
       <c r="M16" t="n">
-        <v>349.9613012161989</v>
+        <v>311.428276371505</v>
       </c>
       <c r="N16" t="n">
-        <v>349.9613012161989</v>
+        <v>471.6425078952695</v>
       </c>
       <c r="O16" t="n">
-        <v>349.9613012161989</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="P16" t="n">
-        <v>468.6318884260459</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612857</v>
+        <v>519.2459201612854</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577487</v>
+        <v>493.8989154577484</v>
       </c>
       <c r="S16" t="n">
-        <v>436.2163212111553</v>
+        <v>436.2163212111551</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272638</v>
+        <v>390.3261544272636</v>
       </c>
       <c r="U16" t="n">
-        <v>278.8848418791731</v>
+        <v>278.884841879173</v>
       </c>
       <c r="V16" t="n">
-        <v>211.4309369701886</v>
+        <v>211.4309369701885</v>
       </c>
       <c r="W16" t="n">
-        <v>98.31875740980462</v>
+        <v>98.31875740980456</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456491</v>
+        <v>54.28865025456489</v>
       </c>
       <c r="Y16" t="n">
         <v>15.08499016404653</v>
@@ -5489,61 +5489,61 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.5335379340413</v>
+        <v>463.5335379340415</v>
       </c>
       <c r="C17" t="n">
-        <v>410.2194918844273</v>
+        <v>410.2194918844277</v>
       </c>
       <c r="D17" t="n">
-        <v>369.4643728438554</v>
+        <v>369.4643728438559</v>
       </c>
       <c r="E17" t="n">
-        <v>294.662029137214</v>
+        <v>294.6620291372146</v>
       </c>
       <c r="F17" t="n">
-        <v>187.8189404019086</v>
+        <v>187.8189404019092</v>
       </c>
       <c r="G17" t="n">
-        <v>65.179298832673</v>
+        <v>65.17929883267294</v>
       </c>
       <c r="H17" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="I17" t="n">
-        <v>70.94848926897384</v>
+        <v>70.9484892689739</v>
       </c>
       <c r="J17" t="n">
-        <v>257.6252425490496</v>
+        <v>70.9484892689739</v>
       </c>
       <c r="K17" t="n">
-        <v>257.6252425490496</v>
+        <v>70.9484892689739</v>
       </c>
       <c r="L17" t="n">
-        <v>304.3985807793437</v>
+        <v>160.6092307802271</v>
       </c>
       <c r="M17" t="n">
-        <v>385.3188915024955</v>
+        <v>241.5295415033789</v>
       </c>
       <c r="N17" t="n">
-        <v>460.7061414357337</v>
+        <v>428.2062947834547</v>
       </c>
       <c r="O17" t="n">
-        <v>494.9828250691633</v>
+        <v>462.4829784168844</v>
       </c>
       <c r="P17" t="n">
-        <v>633.237592299577</v>
+        <v>462.4829784168844</v>
       </c>
       <c r="Q17" t="n">
-        <v>633.237592299577</v>
+        <v>462.4829784168844</v>
       </c>
       <c r="R17" t="n">
-        <v>633.237592299577</v>
+        <v>564.0214906197995</v>
       </c>
       <c r="S17" t="n">
-        <v>633.237592299577</v>
+        <v>633.2375922995768</v>
       </c>
       <c r="T17" t="n">
-        <v>707.4481717933594</v>
+        <v>707.4481717933593</v>
       </c>
       <c r="U17" t="n">
         <v>754.2495082023265</v>
@@ -5558,7 +5558,7 @@
         <v>626.6887139059211</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.9705567075486</v>
+        <v>540.9705567075487</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>366.3997500388601</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="C18" t="n">
-        <v>326.7615858365562</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="D18" t="n">
-        <v>326.7615858365562</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="E18" t="n">
-        <v>326.7615858365562</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="F18" t="n">
-        <v>326.7615858365562</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="G18" t="n">
-        <v>176.5146922106384</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="H18" t="n">
-        <v>176.5146922106384</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I18" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J18" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635122</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L18" t="n">
         <v>170.4486221681695</v>
       </c>
       <c r="M18" t="n">
-        <v>352.1703666486677</v>
+        <v>352.1703666486678</v>
       </c>
       <c r="N18" t="n">
-        <v>538.8471199287435</v>
+        <v>538.8471199287436</v>
       </c>
       <c r="O18" t="n">
         <v>670.5904072110305</v>
@@ -5613,31 +5613,31 @@
         <v>754.2495082023265</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.3338450905402</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R18" t="n">
-        <v>747.3338450905402</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="S18" t="n">
-        <v>747.3338450905402</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="T18" t="n">
-        <v>747.3338450905402</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="U18" t="n">
-        <v>747.3338450905402</v>
+        <v>713.4899592481074</v>
       </c>
       <c r="V18" t="n">
-        <v>747.3338450905402</v>
+        <v>713.4899592481074</v>
       </c>
       <c r="W18" t="n">
-        <v>556.8667975647002</v>
+        <v>523.0229117222674</v>
       </c>
       <c r="X18" t="n">
-        <v>556.8667975647002</v>
+        <v>332.5558641964274</v>
       </c>
       <c r="Y18" t="n">
-        <v>366.3997500388601</v>
+        <v>142.0888166705873</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.5335379340413</v>
+        <v>463.5335379340411</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844275</v>
+        <v>410.2194918844273</v>
       </c>
       <c r="D20" t="n">
-        <v>369.4643728438556</v>
+        <v>369.4643728438554</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372142</v>
+        <v>294.6620291372139</v>
       </c>
       <c r="F20" t="n">
-        <v>187.8189404019088</v>
+        <v>187.8189404019085</v>
       </c>
       <c r="G20" t="n">
         <v>65.179298832673</v>
@@ -5747,31 +5747,31 @@
         <v>15.08499016404653</v>
       </c>
       <c r="I20" t="n">
-        <v>70.94848926897384</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J20" t="n">
-        <v>225.1253958967711</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K20" t="n">
-        <v>225.1253958967711</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L20" t="n">
-        <v>271.8987341270652</v>
+        <v>201.7617434441223</v>
       </c>
       <c r="M20" t="n">
-        <v>352.819044850217</v>
+        <v>388.4384967241982</v>
       </c>
       <c r="N20" t="n">
-        <v>428.2062947834551</v>
+        <v>463.8257466574363</v>
       </c>
       <c r="O20" t="n">
-        <v>462.4829784168847</v>
+        <v>498.1024302908659</v>
       </c>
       <c r="P20" t="n">
-        <v>462.4829784168847</v>
+        <v>498.1024302908659</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.4829784168847</v>
+        <v>498.1024302908659</v>
       </c>
       <c r="R20" t="n">
         <v>564.0214906197998</v>
@@ -5786,7 +5786,7 @@
         <v>754.2495082023265</v>
       </c>
       <c r="V20" t="n">
-        <v>730.55739525577</v>
+        <v>730.5573952557701</v>
       </c>
       <c r="W20" t="n">
         <v>689.6767164338451</v>
@@ -5795,7 +5795,7 @@
         <v>626.6887139059208</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.9705567075484</v>
+        <v>540.9705567075483</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>182.8483656248064</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="C21" t="n">
-        <v>182.8483656248064</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="D21" t="n">
-        <v>182.8483656248064</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="E21" t="n">
-        <v>182.8483656248064</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="F21" t="n">
-        <v>182.8483656248064</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="G21" t="n">
-        <v>32.60147199888868</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="H21" t="n">
-        <v>32.60147199888868</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="I21" t="n">
-        <v>32.60147199888868</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="J21" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635138</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L21" t="n">
-        <v>170.4486221681697</v>
+        <v>170.4486221681695</v>
       </c>
       <c r="M21" t="n">
-        <v>352.1703666486678</v>
+        <v>352.1703666486677</v>
       </c>
       <c r="N21" t="n">
-        <v>538.8471199287436</v>
+        <v>538.8471199287435</v>
       </c>
       <c r="O21" t="n">
         <v>670.5904072110305</v>
@@ -5853,28 +5853,28 @@
         <v>754.2495082023265</v>
       </c>
       <c r="R21" t="n">
-        <v>754.2495082023265</v>
+        <v>618.1801765352213</v>
       </c>
       <c r="S21" t="n">
-        <v>754.2495082023265</v>
+        <v>449.0071505157817</v>
       </c>
       <c r="T21" t="n">
-        <v>754.2495082023265</v>
+        <v>258.5401029899417</v>
       </c>
       <c r="U21" t="n">
-        <v>563.7824606764865</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="V21" t="n">
-        <v>563.7824606764865</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="W21" t="n">
-        <v>563.7824606764865</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="X21" t="n">
-        <v>373.3154131506465</v>
+        <v>68.07305546410171</v>
       </c>
       <c r="Y21" t="n">
-        <v>182.8483656248064</v>
+        <v>68.07305546410171</v>
       </c>
     </row>
     <row r="22">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340411</v>
+        <v>463.533537934042</v>
       </c>
       <c r="C23" t="n">
-        <v>410.2194918844273</v>
+        <v>410.2194918844282</v>
       </c>
       <c r="D23" t="n">
-        <v>369.4643728438555</v>
+        <v>369.4643728438562</v>
       </c>
       <c r="E23" t="n">
-        <v>294.6620291372142</v>
+        <v>294.6620291372146</v>
       </c>
       <c r="F23" t="n">
-        <v>187.818940401909</v>
+        <v>187.8189404019092</v>
       </c>
       <c r="G23" t="n">
         <v>65.179298832673</v>
@@ -5984,55 +5984,55 @@
         <v>15.08499016404654</v>
       </c>
       <c r="I23" t="n">
-        <v>70.94848926897384</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="J23" t="n">
-        <v>70.94848926897384</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="K23" t="n">
-        <v>70.94848926897384</v>
+        <v>188.0464720437164</v>
       </c>
       <c r="L23" t="n">
-        <v>257.6252425490497</v>
+        <v>234.8198102740104</v>
       </c>
       <c r="M23" t="n">
-        <v>338.5455532722016</v>
+        <v>315.7401209971622</v>
       </c>
       <c r="N23" t="n">
-        <v>413.9328032054397</v>
+        <v>502.4168742772382</v>
       </c>
       <c r="O23" t="n">
-        <v>600.6095564855156</v>
+        <v>536.6935579106678</v>
       </c>
       <c r="P23" t="n">
-        <v>754.2495082023268</v>
+        <v>536.6935579106678</v>
       </c>
       <c r="Q23" t="n">
-        <v>754.2495082023268</v>
+        <v>536.6935579106678</v>
       </c>
       <c r="R23" t="n">
-        <v>754.2495082023268</v>
+        <v>638.2320701135828</v>
       </c>
       <c r="S23" t="n">
-        <v>754.2495082023268</v>
+        <v>707.4481717933601</v>
       </c>
       <c r="T23" t="n">
-        <v>754.2495082023268</v>
+        <v>707.4481717933601</v>
       </c>
       <c r="U23" t="n">
-        <v>754.2495082023268</v>
+        <v>754.2495082023272</v>
       </c>
       <c r="V23" t="n">
-        <v>730.5573952557703</v>
+        <v>730.5573952557706</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338453</v>
+        <v>689.676716433846</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059211</v>
+        <v>626.6887139059218</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.9705567075484</v>
+        <v>540.9705567075492</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>142.0888166705873</v>
+        <v>182.8483656248065</v>
       </c>
       <c r="C24" t="n">
-        <v>142.0888166705873</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="D24" t="n">
-        <v>142.0888166705873</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="E24" t="n">
-        <v>142.0888166705873</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="F24" t="n">
-        <v>142.0888166705873</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="G24" t="n">
-        <v>142.0888166705873</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="H24" t="n">
         <v>15.08499016404654</v>
@@ -6075,43 +6075,43 @@
         <v>170.4486221681695</v>
       </c>
       <c r="M24" t="n">
-        <v>352.1703666486679</v>
+        <v>352.1703666486677</v>
       </c>
       <c r="N24" t="n">
-        <v>538.8471199287438</v>
+        <v>538.8471199287443</v>
       </c>
       <c r="O24" t="n">
-        <v>670.5904072110308</v>
+        <v>670.5904072110312</v>
       </c>
       <c r="P24" t="n">
-        <v>754.2495082023268</v>
+        <v>754.2495082023272</v>
       </c>
       <c r="Q24" t="n">
-        <v>754.2495082023268</v>
+        <v>754.2495082023272</v>
       </c>
       <c r="R24" t="n">
-        <v>618.1801765352216</v>
+        <v>754.2495082023272</v>
       </c>
       <c r="S24" t="n">
-        <v>618.1801765352216</v>
+        <v>563.7824606764869</v>
       </c>
       <c r="T24" t="n">
-        <v>427.7131290093815</v>
+        <v>563.7824606764869</v>
       </c>
       <c r="U24" t="n">
-        <v>427.7131290093815</v>
+        <v>563.7824606764869</v>
       </c>
       <c r="V24" t="n">
-        <v>237.2460814835414</v>
+        <v>373.3154131506467</v>
       </c>
       <c r="W24" t="n">
-        <v>142.0888166705873</v>
+        <v>373.3154131506467</v>
       </c>
       <c r="X24" t="n">
-        <v>142.0888166705873</v>
+        <v>373.3154131506467</v>
       </c>
       <c r="Y24" t="n">
-        <v>142.0888166705873</v>
+        <v>182.8483656248065</v>
       </c>
     </row>
     <row r="25">
@@ -6203,40 +6203,40 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8924400792737</v>
+        <v>882.8924400792732</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962489</v>
+        <v>757.3316491962485</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471545</v>
+        <v>597.7236336471542</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0748730693962</v>
+        <v>406.0748730693959</v>
       </c>
       <c r="G26" t="n">
         <v>198.6295596577069</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72957914662744</v>
+        <v>63.72957914662737</v>
       </c>
       <c r="I26" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2683996847215</v>
+        <v>171.2683996847217</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9831015629835</v>
+        <v>375.9831015629832</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0887466946299</v>
+        <v>634.0887466946297</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191341</v>
+        <v>926.3413643191338</v>
       </c>
       <c r="N26" t="n">
-        <v>1213.060921153725</v>
+        <v>1213.060921153724</v>
       </c>
       <c r="O26" t="n">
         <v>1458.669911688507</v>
@@ -6257,7 +6257,7 @@
         <v>1772.810566182449</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.756487451891</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V26" t="n">
         <v>1627.258702662881</v>
@@ -6266,10 +6266,10 @@
         <v>1501.572351998503</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>263.5611688855334</v>
+        <v>549.1440334935564</v>
       </c>
       <c r="C27" t="n">
-        <v>263.5611688855334</v>
+        <v>359.7317592265201</v>
       </c>
       <c r="D27" t="n">
-        <v>263.5611688855334</v>
+        <v>359.7317592265201</v>
       </c>
       <c r="E27" t="n">
-        <v>89.99796500694785</v>
+        <v>186.1685553479346</v>
       </c>
       <c r="F27" t="n">
-        <v>35.92166172201684</v>
+        <v>186.1685553479346</v>
       </c>
       <c r="G27" t="n">
         <v>35.92166172201684</v>
@@ -6330,25 +6330,25 @@
         <v>793.3606943740706</v>
       </c>
       <c r="S27" t="n">
-        <v>599.8380156942</v>
+        <v>793.3606943740706</v>
       </c>
       <c r="T27" t="n">
-        <v>598.3196093529166</v>
+        <v>791.8422880327872</v>
       </c>
       <c r="U27" t="n">
-        <v>358.6953086772295</v>
+        <v>767.8411961126889</v>
       </c>
       <c r="V27" t="n">
-        <v>331.2387993364522</v>
+        <v>740.3846867719117</v>
       </c>
       <c r="W27" t="n">
-        <v>277.4634388223321</v>
+        <v>686.6093262577916</v>
       </c>
       <c r="X27" t="n">
-        <v>273.5786531946171</v>
+        <v>682.7245406300766</v>
       </c>
       <c r="Y27" t="n">
-        <v>263.5611688855334</v>
+        <v>549.1440334935564</v>
       </c>
     </row>
     <row r="28">
@@ -6358,73 +6358,73 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.41321716505081</v>
+        <v>71.41321716505087</v>
       </c>
       <c r="C28" t="n">
-        <v>117.9529149041506</v>
+        <v>71.41321716505087</v>
       </c>
       <c r="D28" t="n">
-        <v>185.5543980572994</v>
+        <v>71.41321716505087</v>
       </c>
       <c r="E28" t="n">
-        <v>185.5543980572994</v>
+        <v>100.1894994806987</v>
       </c>
       <c r="F28" t="n">
-        <v>185.5543980572994</v>
+        <v>173.984192985789</v>
       </c>
       <c r="G28" t="n">
-        <v>185.5543980572994</v>
+        <v>173.984192985789</v>
       </c>
       <c r="H28" t="n">
-        <v>232.7218779679498</v>
+        <v>173.984192985789</v>
       </c>
       <c r="I28" t="n">
-        <v>232.7218779679498</v>
+        <v>173.984192985789</v>
       </c>
       <c r="J28" t="n">
-        <v>232.7218779679498</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="K28" t="n">
-        <v>256.3464833623377</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="L28" t="n">
-        <v>256.3464833623377</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="M28" t="n">
-        <v>256.3464833623377</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="N28" t="n">
-        <v>256.3464833623377</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="O28" t="n">
-        <v>256.3464833623377</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="P28" t="n">
-        <v>256.3464833623377</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="Q28" t="n">
-        <v>256.3464833623377</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="R28" t="n">
-        <v>266.2898381224438</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="S28" t="n">
-        <v>244.0994937177468</v>
+        <v>244.0994937177465</v>
       </c>
       <c r="T28" t="n">
-        <v>233.7015767757518</v>
+        <v>233.7015767757515</v>
       </c>
       <c r="U28" t="n">
-        <v>157.7525140695575</v>
+        <v>157.7525140695573</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7908590024695</v>
+        <v>125.7908590024693</v>
       </c>
       <c r="W28" t="n">
-        <v>48.17092928398201</v>
+        <v>48.17092928398189</v>
       </c>
       <c r="X28" t="n">
-        <v>39.63307197063876</v>
+        <v>39.6330719706387</v>
       </c>
       <c r="Y28" t="n">
         <v>35.92166172201684</v>
@@ -6440,43 +6440,43 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792737</v>
+        <v>882.8924400792728</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962489</v>
+        <v>757.3316491962479</v>
       </c>
       <c r="E29" t="n">
-        <v>597.7236336471545</v>
+        <v>597.7236336471535</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693962</v>
+        <v>406.0748730693952</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6295596577072</v>
+        <v>198.6295596577062</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662788</v>
+        <v>63.72957914662675</v>
       </c>
       <c r="I29" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2683996847211</v>
+        <v>171.2683996847217</v>
       </c>
       <c r="K29" t="n">
-        <v>375.983101562983</v>
+        <v>375.9831015629837</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0887466946294</v>
+        <v>634.0887466946301</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191336</v>
+        <v>926.3413643191343</v>
       </c>
       <c r="N29" t="n">
-        <v>1213.060921153724</v>
+        <v>1213.060921153725</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.669911688506</v>
+        <v>1458.669911688507</v>
       </c>
       <c r="P29" t="n">
         <v>1655.109002436483</v>
@@ -6485,7 +6485,7 @@
         <v>1777.662612870715</v>
       </c>
       <c r="R29" t="n">
-        <v>1796.083086100841</v>
+        <v>1796.083086100842</v>
       </c>
       <c r="S29" t="n">
         <v>1781.898883169497</v>
@@ -6497,16 +6497,16 @@
         <v>1735.75648745189</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.258702662881</v>
+        <v>1627.25870266288</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.572351998503</v>
+        <v>1501.572351998502</v>
       </c>
       <c r="X29" t="n">
         <v>1353.778677628125</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>162.9254882285576</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C30" t="n">
-        <v>162.9254882285576</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D30" t="n">
-        <v>162.9254882285576</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E30" t="n">
-        <v>162.9254882285576</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F30" t="n">
-        <v>162.9254882285576</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G30" t="n">
-        <v>162.9254882285576</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H30" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I30" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J30" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K30" t="n">
         <v>73.91372875432151</v>
@@ -6561,31 +6561,31 @@
         <v>793.3606943740706</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.4450312622843</v>
+        <v>793.3606943740706</v>
       </c>
       <c r="R30" t="n">
-        <v>786.4450312622843</v>
+        <v>793.3606943740706</v>
       </c>
       <c r="S30" t="n">
-        <v>786.4450312622843</v>
+        <v>793.3606943740706</v>
       </c>
       <c r="T30" t="n">
-        <v>784.9266249210009</v>
+        <v>576.2190792771986</v>
       </c>
       <c r="U30" t="n">
-        <v>760.9255330009025</v>
+        <v>346.6790102693016</v>
       </c>
       <c r="V30" t="n">
-        <v>733.4690236601252</v>
+        <v>319.2225009285243</v>
       </c>
       <c r="W30" t="n">
-        <v>679.6936631460052</v>
+        <v>49.82393165881562</v>
       </c>
       <c r="X30" t="n">
-        <v>460.1856687627015</v>
+        <v>45.93914603110058</v>
       </c>
       <c r="Y30" t="n">
-        <v>234.5449756980292</v>
+        <v>35.92166172201684</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.41321716505084</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C31" t="n">
-        <v>117.9529149041506</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D31" t="n">
-        <v>117.9529149041506</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E31" t="n">
-        <v>117.9529149041506</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F31" t="n">
-        <v>117.9529149041506</v>
+        <v>109.716355227107</v>
       </c>
       <c r="G31" t="n">
-        <v>117.9529149041506</v>
+        <v>109.716355227107</v>
       </c>
       <c r="H31" t="n">
-        <v>117.9529149041506</v>
+        <v>109.716355227107</v>
       </c>
       <c r="I31" t="n">
-        <v>117.9529149041506</v>
+        <v>109.716355227107</v>
       </c>
       <c r="J31" t="n">
-        <v>117.9529149041506</v>
+        <v>109.716355227107</v>
       </c>
       <c r="K31" t="n">
-        <v>117.9529149041506</v>
+        <v>109.716355227107</v>
       </c>
       <c r="L31" t="n">
-        <v>117.9529149041506</v>
+        <v>109.716355227107</v>
       </c>
       <c r="M31" t="n">
-        <v>117.9529149041506</v>
+        <v>109.716355227107</v>
       </c>
       <c r="N31" t="n">
-        <v>117.9529149041506</v>
+        <v>256.3464833623377</v>
       </c>
       <c r="O31" t="n">
-        <v>117.9529149041506</v>
+        <v>256.3464833623377</v>
       </c>
       <c r="P31" t="n">
-        <v>170.9464975570549</v>
+        <v>256.3464833623377</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.3464833623374</v>
+        <v>256.3464833623377</v>
       </c>
       <c r="R31" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="S31" t="n">
-        <v>244.0994937177466</v>
+        <v>244.0994937177468</v>
       </c>
       <c r="T31" t="n">
-        <v>233.7015767757516</v>
+        <v>233.7015767757518</v>
       </c>
       <c r="U31" t="n">
-        <v>157.7525140695574</v>
+        <v>157.7525140695575</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024695</v>
       </c>
       <c r="W31" t="n">
-        <v>48.17092928398194</v>
+        <v>48.17092928398201</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063872</v>
+        <v>39.63307197063876</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201684</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1021.01215797134</v>
+        <v>1021.012157971341</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8924400792731</v>
+        <v>882.8924400792739</v>
       </c>
       <c r="D32" t="n">
-        <v>757.3316491962483</v>
+        <v>757.3316491962491</v>
       </c>
       <c r="E32" t="n">
-        <v>597.723633647154</v>
+        <v>597.7236336471549</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693957</v>
+        <v>406.0748730693965</v>
       </c>
       <c r="G32" t="n">
-        <v>198.6295596577065</v>
+        <v>198.6295596577066</v>
       </c>
       <c r="H32" t="n">
-        <v>63.7295791466274</v>
+        <v>63.72957914662741</v>
       </c>
       <c r="I32" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J32" t="n">
         <v>171.2683996847217</v>
@@ -6704,16 +6704,16 @@
         <v>375.9831015629837</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946297</v>
+        <v>634.0887466946299</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191338</v>
+        <v>926.3413643191341</v>
       </c>
       <c r="N32" t="n">
-        <v>1213.060921153724</v>
+        <v>1213.060921153725</v>
       </c>
       <c r="O32" t="n">
-        <v>1458.669911688506</v>
+        <v>1458.669911688507</v>
       </c>
       <c r="P32" t="n">
         <v>1655.109002436483</v>
@@ -6722,13 +6722,13 @@
         <v>1777.662612870715</v>
       </c>
       <c r="R32" t="n">
-        <v>1796.083086100841</v>
+        <v>1796.083086100842</v>
       </c>
       <c r="S32" t="n">
         <v>1781.898883169497</v>
       </c>
       <c r="T32" t="n">
-        <v>1772.810566182448</v>
+        <v>1772.810566182449</v>
       </c>
       <c r="U32" t="n">
         <v>1735.75648745189</v>
@@ -6740,10 +6740,10 @@
         <v>1501.572351998503</v>
       </c>
       <c r="X32" t="n">
-        <v>1353.778677628125</v>
+        <v>1353.778677628126</v>
       </c>
       <c r="Y32" t="n">
-        <v>1183.2548485873</v>
+        <v>1183.254848587301</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.92166172201683</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="C33" t="n">
-        <v>35.92166172201683</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="D33" t="n">
-        <v>35.92166172201683</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="E33" t="n">
-        <v>35.92166172201683</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="F33" t="n">
-        <v>35.92166172201683</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="G33" t="n">
-        <v>35.92166172201683</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="H33" t="n">
-        <v>35.92166172201683</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="I33" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J33" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K33" t="n">
-        <v>73.91372875432151</v>
+        <v>73.91372875432148</v>
       </c>
       <c r="L33" t="n">
         <v>191.2852937261398</v>
       </c>
       <c r="M33" t="n">
-        <v>373.007038206638</v>
+        <v>373.0070382066378</v>
       </c>
       <c r="N33" t="n">
-        <v>577.9583061004877</v>
+        <v>577.9583061004876</v>
       </c>
       <c r="O33" t="n">
-        <v>709.7015933827746</v>
+        <v>709.7015933827745</v>
       </c>
       <c r="P33" t="n">
-        <v>793.3606943740706</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="Q33" t="n">
-        <v>793.3606943740706</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="R33" t="n">
-        <v>766.3575702132071</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="S33" t="n">
-        <v>766.3575702132071</v>
+        <v>793.3606943740705</v>
       </c>
       <c r="T33" t="n">
-        <v>764.8391638719237</v>
+        <v>791.8422880327871</v>
       </c>
       <c r="U33" t="n">
-        <v>740.8380719518253</v>
+        <v>552.2179873571</v>
       </c>
       <c r="V33" t="n">
-        <v>713.381562611048</v>
+        <v>427.6641376750608</v>
       </c>
       <c r="W33" t="n">
-        <v>659.606202096928</v>
+        <v>158.2655684053522</v>
       </c>
       <c r="X33" t="n">
-        <v>440.0982077136243</v>
+        <v>154.3807827776372</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.4575146489519</v>
+        <v>144.3632984685535</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C34" t="n">
-        <v>82.46135946111661</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D34" t="n">
-        <v>101.0089757648101</v>
+        <v>103.5231448751657</v>
       </c>
       <c r="E34" t="n">
-        <v>101.0089757648101</v>
+        <v>103.5231448751657</v>
       </c>
       <c r="F34" t="n">
-        <v>174.8036692699004</v>
+        <v>103.5231448751657</v>
       </c>
       <c r="G34" t="n">
-        <v>219.1223582117931</v>
+        <v>103.5231448751657</v>
       </c>
       <c r="H34" t="n">
-        <v>266.2898381224435</v>
+        <v>103.5231448751657</v>
       </c>
       <c r="I34" t="n">
-        <v>266.2898381224435</v>
+        <v>103.5231448751657</v>
       </c>
       <c r="J34" t="n">
-        <v>266.2898381224435</v>
+        <v>195.8287900118201</v>
       </c>
       <c r="K34" t="n">
-        <v>266.2898381224435</v>
+        <v>195.8287900118201</v>
       </c>
       <c r="L34" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="M34" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="N34" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="O34" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="P34" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="Q34" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="R34" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="S34" t="n">
-        <v>244.0994937177466</v>
+        <v>244.0994937177465</v>
       </c>
       <c r="T34" t="n">
-        <v>233.7015767757516</v>
+        <v>233.7015767757515</v>
       </c>
       <c r="U34" t="n">
-        <v>157.7525140695574</v>
+        <v>157.7525140695573</v>
       </c>
       <c r="V34" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024693</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398194</v>
+        <v>48.17092928398189</v>
       </c>
       <c r="X34" t="n">
-        <v>39.63307197063872</v>
+        <v>39.6330719706387</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201684</v>
       </c>
     </row>
     <row r="35">
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0119765837458</v>
+        <v>623.0119765837455</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0768043248352</v>
+        <v>544.0768043248349</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7005590749666</v>
+        <v>477.7005590749663</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2770891590283</v>
+        <v>377.277089159028</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8128742144261</v>
+        <v>244.8128742144258</v>
       </c>
       <c r="G35" t="n">
         <v>96.55210643589356</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="I35" t="n">
-        <v>51.58890486516583</v>
+        <v>51.58890486516582</v>
       </c>
       <c r="J35" t="n">
-        <v>178.1482812515661</v>
+        <v>51.58890486516582</v>
       </c>
       <c r="K35" t="n">
-        <v>178.1482812515661</v>
+        <v>219.6074958876543</v>
       </c>
       <c r="L35" t="n">
-        <v>224.9216194818601</v>
+        <v>477.4613064175368</v>
       </c>
       <c r="M35" t="n">
-        <v>305.8419302050119</v>
+        <v>558.3816171406885</v>
       </c>
       <c r="N35" t="n">
-        <v>381.22918013825</v>
+        <v>816.235427670571</v>
       </c>
       <c r="O35" t="n">
-        <v>415.5058637716796</v>
+        <v>850.5121113040005</v>
       </c>
       <c r="P35" t="n">
-        <v>669.9517276947128</v>
+        <v>850.5121113040005</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5121113040008</v>
+        <v>850.5121113040005</v>
       </c>
       <c r="R35" t="n">
-        <v>926.939357709184</v>
+        <v>926.9393577091838</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0441935912295</v>
+        <v>971.0441935912293</v>
       </c>
       <c r="T35" t="n">
         <v>1020.14350728728</v>
@@ -6971,16 +6971,16 @@
         <v>1041.833577898515</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5203387426618</v>
+        <v>992.5203387426616</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0185337114401</v>
+        <v>926.0185337114399</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4094049742191</v>
+        <v>837.4094049742189</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0701215665498</v>
+        <v>726.0701215665496</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>127.5591944309432</v>
+        <v>171.0835651838881</v>
       </c>
       <c r="C36" t="n">
-        <v>127.5591944309432</v>
+        <v>171.0835651838881</v>
       </c>
       <c r="D36" t="n">
-        <v>127.5591944309432</v>
+        <v>171.0835651838881</v>
       </c>
       <c r="E36" t="n">
-        <v>127.5591944309432</v>
+        <v>171.0835651838881</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83667155797031</v>
+        <v>171.0835651838881</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="K36" t="n">
-        <v>58.82873859027499</v>
+        <v>58.82873859027495</v>
       </c>
       <c r="L36" t="n">
-        <v>176.2003035620933</v>
+        <v>176.2003035620932</v>
       </c>
       <c r="M36" t="n">
-        <v>357.9220480425914</v>
+        <v>357.9220480425913</v>
       </c>
       <c r="N36" t="n">
-        <v>562.8733159364411</v>
+        <v>562.873315936441</v>
       </c>
       <c r="O36" t="n">
-        <v>694.6166032187281</v>
+        <v>694.616603218728</v>
       </c>
       <c r="P36" t="n">
-        <v>778.2757042100241</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.3600410982377</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="R36" t="n">
-        <v>771.3600410982377</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="S36" t="n">
-        <v>771.3600410982377</v>
+        <v>584.7530255301533</v>
       </c>
       <c r="T36" t="n">
-        <v>771.3600410982377</v>
+        <v>584.7530255301533</v>
       </c>
       <c r="U36" t="n">
-        <v>531.7357404225506</v>
+        <v>584.7530255301533</v>
       </c>
       <c r="V36" t="n">
-        <v>531.7357404225506</v>
+        <v>584.7530255301533</v>
       </c>
       <c r="W36" t="n">
-        <v>531.7357404225506</v>
+        <v>584.7530255301533</v>
       </c>
       <c r="X36" t="n">
-        <v>531.7357404225506</v>
+        <v>396.7242582485604</v>
       </c>
       <c r="Y36" t="n">
-        <v>306.0950473578783</v>
+        <v>171.0835651838881</v>
       </c>
     </row>
     <row r="37">
@@ -7069,61 +7069,61 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="J37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="K37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="L37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="M37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="N37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="O37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03657271633964</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633963</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633963</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633963</v>
       </c>
       <c r="U37" t="n">
         <v>39.27205564330161</v>
@@ -7132,13 +7132,13 @@
         <v>39.27205564330161</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0119765837461</v>
+        <v>623.0119765837459</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0768043248355</v>
+        <v>544.0768043248353</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7005590749669</v>
+        <v>477.7005590749666</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2770891590287</v>
+        <v>377.2770891590284</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144265</v>
+        <v>244.8128742144262</v>
       </c>
       <c r="G38" t="n">
         <v>96.55210643589356</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="I38" t="n">
-        <v>51.58890486516583</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="J38" t="n">
-        <v>244.9424160029271</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="K38" t="n">
-        <v>244.9424160029271</v>
+        <v>278.6904820878528</v>
       </c>
       <c r="L38" t="n">
-        <v>291.7157542332211</v>
+        <v>325.4638203181468</v>
       </c>
       <c r="M38" t="n">
-        <v>372.6360649563729</v>
+        <v>406.3841310412985</v>
       </c>
       <c r="N38" t="n">
-        <v>448.0233148896111</v>
+        <v>664.237941571181</v>
       </c>
       <c r="O38" t="n">
-        <v>482.2999985230407</v>
+        <v>839.5831236779918</v>
       </c>
       <c r="P38" t="n">
-        <v>669.9517276947128</v>
+        <v>839.5831236779918</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5121113040008</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="R38" t="n">
-        <v>926.939357709184</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0441935912295</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="T38" t="n">
         <v>1020.14350728728</v>
@@ -7208,16 +7208,16 @@
         <v>1041.833577898515</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5203387426621</v>
+        <v>992.5203387426619</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0185337114403</v>
+        <v>926.0185337114401</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4094049742193</v>
+        <v>837.4094049742191</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0701215665501</v>
+        <v>726.0701215665499</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.83667155797031</v>
+        <v>584.7530255301533</v>
       </c>
       <c r="C39" t="n">
-        <v>20.83667155797031</v>
+        <v>395.340751263117</v>
       </c>
       <c r="D39" t="n">
-        <v>20.83667155797031</v>
+        <v>395.340751263117</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83667155797031</v>
+        <v>221.7775473845315</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83667155797031</v>
+        <v>61.34983110177555</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83667155797031</v>
+        <v>61.34983110177555</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83667155797031</v>
+        <v>61.34983110177555</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="K39" t="n">
-        <v>58.82873859027499</v>
+        <v>58.82873859027495</v>
       </c>
       <c r="L39" t="n">
-        <v>176.2003035620933</v>
+        <v>176.2003035620932</v>
       </c>
       <c r="M39" t="n">
-        <v>357.9220480425914</v>
+        <v>357.9220480425913</v>
       </c>
       <c r="N39" t="n">
-        <v>562.8733159364411</v>
+        <v>562.873315936441</v>
       </c>
       <c r="O39" t="n">
-        <v>694.6166032187281</v>
+        <v>694.616603218728</v>
       </c>
       <c r="P39" t="n">
-        <v>778.2757042100241</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.2757042100241</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="R39" t="n">
-        <v>778.2757042100241</v>
+        <v>778.2757042100239</v>
       </c>
       <c r="S39" t="n">
-        <v>778.2757042100241</v>
+        <v>584.7530255301533</v>
       </c>
       <c r="T39" t="n">
-        <v>778.2757042100241</v>
+        <v>584.7530255301533</v>
       </c>
       <c r="U39" t="n">
-        <v>538.651403534337</v>
+        <v>584.7530255301533</v>
       </c>
       <c r="V39" t="n">
-        <v>295.571685437971</v>
+        <v>584.7530255301533</v>
       </c>
       <c r="W39" t="n">
-        <v>32.48239808986108</v>
+        <v>584.7530255301533</v>
       </c>
       <c r="X39" t="n">
-        <v>20.83667155797031</v>
+        <v>584.7530255301533</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.83667155797031</v>
+        <v>584.7530255301533</v>
       </c>
     </row>
     <row r="40">
@@ -7306,61 +7306,61 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="M40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="N40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="O40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633963</v>
       </c>
       <c r="P40" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633963</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633963</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633963</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633963</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633963</v>
       </c>
       <c r="U40" t="n">
         <v>39.27205564330161</v>
@@ -7369,13 +7369,13 @@
         <v>39.27205564330161</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.8366715579703</v>
       </c>
     </row>
     <row r="41">
@@ -7409,25 +7409,25 @@
         <v>28.06910159062234</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6703794211881</v>
+        <v>190.670379421188</v>
       </c>
       <c r="K41" t="n">
-        <v>422.6396211673109</v>
+        <v>422.6396211673108</v>
       </c>
       <c r="L41" t="n">
-        <v>469.4129593976049</v>
+        <v>707.999806166818</v>
       </c>
       <c r="M41" t="n">
-        <v>550.3332701207568</v>
+        <v>788.9201168899697</v>
       </c>
       <c r="N41" t="n">
-        <v>864.3073668232082</v>
+        <v>1068.110069220157</v>
       </c>
       <c r="O41" t="n">
-        <v>952.5786025514942</v>
+        <v>1102.386752853587</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.272233167332</v>
+        <v>1326.080383469424</v>
       </c>
       <c r="Q41" t="n">
         <v>1326.080383469424</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.06910159062234</v>
+        <v>59.69505728424148</v>
       </c>
       <c r="C42" t="n">
-        <v>28.06910159062234</v>
+        <v>59.69505728424148</v>
       </c>
       <c r="D42" t="n">
-        <v>28.06910159062234</v>
+        <v>59.69505728424148</v>
       </c>
       <c r="E42" t="n">
-        <v>28.06910159062234</v>
+        <v>59.69505728424148</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06910159062234</v>
+        <v>59.69505728424148</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06910159062234</v>
+        <v>59.69505728424148</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06910159062234</v>
+        <v>59.69505728424148</v>
       </c>
       <c r="I42" t="n">
         <v>28.06910159062234</v>
@@ -7491,7 +7491,7 @@
         <v>28.06910159062234</v>
       </c>
       <c r="K42" t="n">
-        <v>66.06116862292703</v>
+        <v>66.061168622927</v>
       </c>
       <c r="L42" t="n">
         <v>183.4327335947453</v>
@@ -7500,40 +7500,40 @@
         <v>365.1544780752434</v>
       </c>
       <c r="N42" t="n">
-        <v>570.1057459690932</v>
+        <v>570.1057459690931</v>
       </c>
       <c r="O42" t="n">
-        <v>701.8490332513801</v>
+        <v>701.84903325138</v>
       </c>
       <c r="P42" t="n">
-        <v>785.5081342426761</v>
+        <v>785.508134242676</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.5081342426761</v>
+        <v>785.508134242676</v>
       </c>
       <c r="R42" t="n">
-        <v>785.5081342426761</v>
+        <v>785.508134242676</v>
       </c>
       <c r="S42" t="n">
-        <v>785.5081342426761</v>
+        <v>785.508134242676</v>
       </c>
       <c r="T42" t="n">
-        <v>785.5081342426761</v>
+        <v>568.366519145804</v>
       </c>
       <c r="U42" t="n">
-        <v>766.1880820213693</v>
+        <v>328.7422184701169</v>
       </c>
       <c r="V42" t="n">
-        <v>523.1083639250033</v>
+        <v>85.66250037375096</v>
       </c>
       <c r="W42" t="n">
-        <v>253.7097946552947</v>
+        <v>59.69505728424148</v>
       </c>
       <c r="X42" t="n">
-        <v>253.7097946552947</v>
+        <v>59.69505728424148</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.06910159062234</v>
+        <v>59.69505728424148</v>
       </c>
     </row>
     <row r="43">
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>90.81519690151717</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="C43" t="n">
-        <v>90.81519690151717</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="D43" t="n">
-        <v>90.81519690151717</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="E43" t="n">
-        <v>90.81519690151717</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="F43" t="n">
-        <v>107.6066720187314</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="G43" t="n">
-        <v>107.6066720187314</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="H43" t="n">
-        <v>107.6066720187314</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="I43" t="n">
-        <v>107.6066720187314</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="J43" t="n">
-        <v>107.6066720187314</v>
+        <v>124.6702134917429</v>
       </c>
       <c r="K43" t="n">
-        <v>107.6066720187314</v>
+        <v>124.6702134917429</v>
       </c>
       <c r="L43" t="n">
-        <v>107.6066720187314</v>
+        <v>124.6702134917429</v>
       </c>
       <c r="M43" t="n">
-        <v>107.6066720187314</v>
+        <v>124.6702134917429</v>
       </c>
       <c r="N43" t="n">
-        <v>107.6066720187314</v>
+        <v>124.6702134917429</v>
       </c>
       <c r="O43" t="n">
-        <v>107.6066720187314</v>
+        <v>124.6702134917429</v>
       </c>
       <c r="P43" t="n">
-        <v>107.6066720187314</v>
+        <v>124.6702134917429</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.6066720187314</v>
+        <v>124.6702134917429</v>
       </c>
       <c r="R43" t="n">
-        <v>107.6066720187314</v>
+        <v>124.6702134917429</v>
       </c>
       <c r="S43" t="n">
-        <v>113.1124553355488</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="T43" t="n">
         <v>130.1759968085603</v>
@@ -7646,25 +7646,25 @@
         <v>28.06910159062234</v>
       </c>
       <c r="J44" t="n">
-        <v>190.6703794211881</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="K44" t="n">
-        <v>422.6396211673109</v>
+        <v>260.0383433367452</v>
       </c>
       <c r="L44" t="n">
-        <v>707.9998061668182</v>
+        <v>545.3985283362524</v>
       </c>
       <c r="M44" t="n">
-        <v>788.92011688997</v>
+        <v>626.3188390594042</v>
       </c>
       <c r="N44" t="n">
-        <v>864.3073668232082</v>
+        <v>829.5232224509439</v>
       </c>
       <c r="O44" t="n">
-        <v>952.5786025514942</v>
+        <v>1102.386752853587</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.272233167332</v>
+        <v>1326.080383469424</v>
       </c>
       <c r="Q44" t="n">
         <v>1326.080383469424</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>623.4713594860614</v>
+        <v>315.8530443361313</v>
       </c>
       <c r="C45" t="n">
-        <v>575.8282032909873</v>
+        <v>315.8530443361313</v>
       </c>
       <c r="D45" t="n">
-        <v>415.048087052019</v>
+        <v>155.0729280971631</v>
       </c>
       <c r="E45" t="n">
-        <v>241.4848831734334</v>
+        <v>155.0729280971631</v>
       </c>
       <c r="F45" t="n">
-        <v>81.05716689067754</v>
+        <v>155.0729280971631</v>
       </c>
       <c r="G45" t="n">
-        <v>81.05716689067754</v>
+        <v>155.0729280971631</v>
       </c>
       <c r="H45" t="n">
-        <v>81.05716689067754</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="I45" t="n">
-        <v>81.05716689067754</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="J45" t="n">
         <v>28.06910159062234</v>
@@ -7734,43 +7734,43 @@
         <v>183.4327335947453</v>
       </c>
       <c r="M45" t="n">
-        <v>365.1544780752434</v>
+        <v>365.1544780752435</v>
       </c>
       <c r="N45" t="n">
-        <v>570.1057459690932</v>
+        <v>570.1057459690933</v>
       </c>
       <c r="O45" t="n">
-        <v>701.8490332513801</v>
+        <v>701.8490332513802</v>
       </c>
       <c r="P45" t="n">
-        <v>785.5081342426761</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.5081342426761</v>
+        <v>778.5924711308899</v>
       </c>
       <c r="R45" t="n">
-        <v>649.4388025755709</v>
+        <v>754.8511604888151</v>
       </c>
       <c r="S45" t="n">
-        <v>649.4388025755709</v>
+        <v>561.3284818089445</v>
       </c>
       <c r="T45" t="n">
-        <v>649.4388025755709</v>
+        <v>561.3284818089445</v>
       </c>
       <c r="U45" t="n">
-        <v>649.4388025755709</v>
+        <v>561.3284818089445</v>
       </c>
       <c r="V45" t="n">
-        <v>649.4388025755709</v>
+        <v>561.3284818089445</v>
       </c>
       <c r="W45" t="n">
-        <v>623.4713594860614</v>
+        <v>535.361038719435</v>
       </c>
       <c r="X45" t="n">
-        <v>623.4713594860614</v>
+        <v>315.8530443361313</v>
       </c>
       <c r="Y45" t="n">
-        <v>623.4713594860614</v>
+        <v>315.8530443361313</v>
       </c>
     </row>
     <row r="46">
@@ -7792,43 +7792,43 @@
         <v>28.06910159062234</v>
       </c>
       <c r="F46" t="n">
-        <v>58.60276799880677</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="G46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="H46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="I46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="J46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="K46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="L46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="M46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062234</v>
       </c>
       <c r="N46" t="n">
-        <v>130.1759968085603</v>
+        <v>87.47231886377597</v>
       </c>
       <c r="O46" t="n">
-        <v>130.1759968085603</v>
+        <v>87.47231886377597</v>
       </c>
       <c r="P46" t="n">
-        <v>130.1759968085603</v>
+        <v>87.47231886377597</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.1759968085603</v>
+        <v>87.47231886377597</v>
       </c>
       <c r="R46" t="n">
-        <v>130.1759968085603</v>
+        <v>124.6702134917429</v>
       </c>
       <c r="S46" t="n">
         <v>130.1759968085603</v>
@@ -8775,7 +8775,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>301.7768813100001</v>
+        <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
         <v>292.1547529041439</v>
@@ -8784,7 +8784,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
-        <v>206.3638740786793</v>
+        <v>206.3638740786794</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9249,7 +9249,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>301.77688131</v>
+        <v>301.7768813100001</v>
       </c>
       <c r="N18" t="n">
         <v>292.1547529041439</v>
@@ -9480,7 +9480,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.3734735841511</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9723,10 +9723,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>301.7768813100002</v>
+        <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1547529041439</v>
+        <v>292.1547529041447</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23258,22 +23258,22 @@
         <v>195.7575910532781</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>171.8758480566236</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.442510317672</v>
       </c>
       <c r="E11" t="n">
         <v>193.1492627370809</v>
       </c>
       <c r="F11" t="n">
-        <v>101.3291168963573</v>
+        <v>36.3072232648766</v>
       </c>
       <c r="G11" t="n">
-        <v>51.94581057046792</v>
+        <v>157.2843029666826</v>
       </c>
       <c r="H11" t="n">
-        <v>168.6883080494461</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>62.66716559384196</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.17968824550868</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065502</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>71.82086528673099</v>
       </c>
       <c r="V11" t="n">
         <v>142.5501342845968</v>
@@ -23321,7 +23321,7 @@
         <v>159.5668145012116</v>
       </c>
       <c r="X11" t="n">
-        <v>181.4530649701509</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>203.9559180938946</v>
@@ -23498,19 +23498,19 @@
         <v>171.8758480566236</v>
       </c>
       <c r="D14" t="n">
-        <v>159.4425103176721</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>193.1492627370809</v>
       </c>
       <c r="F14" t="n">
-        <v>36.30722326487663</v>
+        <v>36.3072232648766</v>
       </c>
       <c r="G14" t="n">
-        <v>51.94581057046795</v>
+        <v>240.5081876210496</v>
       </c>
       <c r="H14" t="n">
-        <v>168.6883080494461</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.53078872718768</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.17968824550869</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673102</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>142.5501342845968</v>
       </c>
       <c r="W14" t="n">
-        <v>159.5668145012117</v>
+        <v>159.5668145012116</v>
       </c>
       <c r="X14" t="n">
         <v>181.4530649701509</v>
       </c>
       <c r="Y14" t="n">
-        <v>21.82020306435436</v>
+        <v>167.4990326949253</v>
       </c>
     </row>
     <row r="15">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1070813.232784849</v>
+        <v>1070813.23278485</v>
       </c>
     </row>
     <row r="7">
@@ -26320,40 +26320,40 @@
         <v>374821.0979499954</v>
       </c>
       <c r="E2" t="n">
-        <v>322995.7878337036</v>
+        <v>322995.7878337034</v>
       </c>
       <c r="F2" t="n">
-        <v>322995.7878337029</v>
+        <v>322995.7878337038</v>
       </c>
       <c r="G2" t="n">
-        <v>375580.3832648777</v>
+        <v>375580.3832648776</v>
       </c>
       <c r="H2" t="n">
         <v>375580.3832648775</v>
       </c>
       <c r="I2" t="n">
-        <v>375580.3832648777</v>
+        <v>375580.3832648775</v>
       </c>
       <c r="J2" t="n">
-        <v>375580.3832648776</v>
+        <v>375580.3832648774</v>
       </c>
       <c r="K2" t="n">
-        <v>375580.3832648777</v>
+        <v>375580.3832648778</v>
       </c>
       <c r="L2" t="n">
-        <v>375580.3832648774</v>
+        <v>375580.3832648775</v>
       </c>
       <c r="M2" t="n">
         <v>375580.3832648777</v>
       </c>
       <c r="N2" t="n">
-        <v>375580.3832648776</v>
+        <v>375580.3832648777</v>
       </c>
       <c r="O2" t="n">
         <v>375580.3832648777</v>
       </c>
       <c r="P2" t="n">
-        <v>375580.3832648777</v>
+        <v>375580.3832648778</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>280312.8421842064</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400476</v>
+        <v>95275.95397400478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.95397400476</v>
+        <v>95275.95397400482</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.16014145967</v>
+        <v>46874.16014145961</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181660014</v>
+        <v>72403.48181660019</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,10 +26430,10 @@
         <v>331148.6906652544</v>
       </c>
       <c r="G4" t="n">
+        <v>401611.6670699617</v>
+      </c>
+      <c r="H4" t="n">
         <v>401611.6670699618</v>
-      </c>
-      <c r="H4" t="n">
-        <v>401611.6670699617</v>
       </c>
       <c r="I4" t="n">
         <v>401611.6670699618</v>
@@ -26445,7 +26445,7 @@
         <v>402517.617503318</v>
       </c>
       <c r="L4" t="n">
-        <v>402517.617503318</v>
+        <v>402517.6175033181</v>
       </c>
       <c r="M4" t="n">
         <v>401692.5905255168</v>
@@ -26454,10 +26454,10 @@
         <v>401692.5905255168</v>
       </c>
       <c r="O4" t="n">
+        <v>402079.8338982546</v>
+      </c>
+      <c r="P4" t="n">
         <v>402079.8338982545</v>
-      </c>
-      <c r="P4" t="n">
-        <v>402079.8338982544</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>28663.94612301865</v>
       </c>
       <c r="F5" t="n">
-        <v>28663.94612301864</v>
+        <v>28663.94612301865</v>
       </c>
       <c r="G5" t="n">
         <v>38676.13884131941</v>
@@ -26491,7 +26491,7 @@
         <v>38676.13884131941</v>
       </c>
       <c r="J5" t="n">
-        <v>47453.77647951488</v>
+        <v>47453.77647951489</v>
       </c>
       <c r="K5" t="n">
         <v>47453.77647951488</v>
@@ -26500,10 +26500,10 @@
         <v>47453.77647951488</v>
       </c>
       <c r="M5" t="n">
-        <v>40915.013666005</v>
+        <v>40915.01366600499</v>
       </c>
       <c r="N5" t="n">
-        <v>40915.013666005</v>
+        <v>40915.01366600499</v>
       </c>
       <c r="O5" t="n">
         <v>43800.23675152496</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99617.64378493992</v>
+        <v>-99622.11016914506</v>
       </c>
       <c r="C6" t="n">
-        <v>-99617.64378493998</v>
+        <v>-99622.11016914518</v>
       </c>
       <c r="D6" t="n">
-        <v>-99617.64378493992</v>
+        <v>-99622.11016914506</v>
       </c>
       <c r="E6" t="n">
-        <v>-317129.6911387759</v>
+        <v>-317439.0122883712</v>
       </c>
       <c r="F6" t="n">
-        <v>-36816.84895457009</v>
+        <v>-37126.17010416442</v>
       </c>
       <c r="G6" t="n">
         <v>-159983.3766204083</v>
@@ -26540,13 +26540,13 @@
         <v>-64707.42264640359</v>
       </c>
       <c r="I6" t="n">
-        <v>-64707.42264640353</v>
+        <v>-64707.42264640365</v>
       </c>
       <c r="J6" t="n">
-        <v>-218036.0142422966</v>
+        <v>-218036.0142422969</v>
       </c>
       <c r="K6" t="n">
-        <v>-74391.01071795523</v>
+        <v>-74391.01071795511</v>
       </c>
       <c r="L6" t="n">
         <v>-169666.9646919603</v>
@@ -26555,13 +26555,13 @@
         <v>-113901.3810681037</v>
       </c>
       <c r="N6" t="n">
-        <v>-67027.22092664416</v>
+        <v>-67027.22092664405</v>
       </c>
       <c r="O6" t="n">
-        <v>-142703.1692015019</v>
+        <v>-142703.1692015021</v>
       </c>
       <c r="P6" t="n">
-        <v>-70299.68738490174</v>
+        <v>-70299.68738490163</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J2" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K2" t="n">
         <v>213.4669766680327</v>
       </c>
       <c r="L2" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M2" t="n">
         <v>272.0596768448573</v>
@@ -26765,16 +26765,16 @@
         <v>101.2549683154701</v>
       </c>
       <c r="L3" t="n">
-        <v>101.2549683154701</v>
+        <v>101.25496831547</v>
       </c>
       <c r="M3" t="n">
-        <v>101.2549683154701</v>
+        <v>101.25496831547</v>
       </c>
       <c r="N3" t="n">
-        <v>101.2549683154701</v>
+        <v>101.25496831547</v>
       </c>
       <c r="O3" t="n">
-        <v>101.2549683154701</v>
+        <v>101.25496831547</v>
       </c>
       <c r="P3" t="n">
         <v>101.2549683154701</v>
@@ -26808,10 +26808,10 @@
         <v>188.5623770505816</v>
       </c>
       <c r="I4" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="J4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252104</v>
       </c>
       <c r="K4" t="n">
         <v>449.0207715252104</v>
@@ -26917,10 +26917,10 @@
         <v>178.3296493245552</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>119.0949424675059</v>
+        <v>119.094942467506</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.3720342005268</v>
+        <v>94.37203420052685</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.0949424675059</v>
+        <v>119.094942467506</v>
       </c>
       <c r="M2" t="n">
-        <v>58.59270017682459</v>
+        <v>58.59270017682451</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406667</v>
+        <v>63.30917227406673</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4583944746288</v>
+        <v>260.4583944746286</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.40537540815041</v>
+        <v>90.40537540815046</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>178.3296493245552</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>119.0949424675059</v>
+        <v>119.094942467506</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.3720342005268</v>
+        <v>94.37203420052685</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28111,16 +28111,16 @@
         <v>178.3296493245552</v>
       </c>
       <c r="J11" t="n">
-        <v>178.3296493245552</v>
+        <v>76.75309993802782</v>
       </c>
       <c r="K11" t="n">
-        <v>160.0433975822947</v>
+        <v>176.7646733033961</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3165808583655</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>106.8246894514384</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -28129,7 +28129,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>178.3296493245552</v>
+        <v>15.04365268017747</v>
       </c>
       <c r="Q11" t="n">
         <v>178.3296493245552</v>
@@ -28172,7 +28172,7 @@
         <v>178.3296493245552</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -28181,16 +28181,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>114.4090339975371</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H12" t="n">
         <v>125.7337882414754</v>
       </c>
       <c r="I12" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,22 +28211,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.846506480668491</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7086383504341</v>
+        <v>14.93218380258124</v>
       </c>
       <c r="S12" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="T12" t="n">
-        <v>178.3296493245552</v>
+        <v>26.40782189532166</v>
       </c>
       <c r="U12" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="V12" t="n">
-        <v>52.08654386482061</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W12" t="n">
         <v>178.3296493245552</v>
@@ -28245,49 +28245,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7006242014745</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H13" t="n">
-        <v>165.8230575663656</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I13" t="n">
-        <v>164.8484353357569</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="J13" t="n">
         <v>120.2289512774728</v>
       </c>
       <c r="K13" t="n">
-        <v>67.01246855587064</v>
+        <v>138.3193326723596</v>
       </c>
       <c r="L13" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="M13" t="n">
-        <v>178.3296493245552</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N13" t="n">
-        <v>175.2886195576624</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O13" t="n">
         <v>37.45757960830504</v>
       </c>
       <c r="P13" t="n">
-        <v>58.46036931460877</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Q13" t="n">
         <v>178.3296493245552</v>
@@ -28348,28 +28348,28 @@
         <v>178.3296493245552</v>
       </c>
       <c r="J14" t="n">
-        <v>178.3296493245552</v>
+        <v>76.75309993802782</v>
       </c>
       <c r="K14" t="n">
-        <v>6.684449518273162</v>
+        <v>6.684449518273169</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>106.8246894514384</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>82.82554205723464</v>
       </c>
       <c r="O14" t="n">
-        <v>153.3589480640215</v>
+        <v>153.9394642895416</v>
       </c>
       <c r="P14" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.3296493245552</v>
+        <v>89.67545097688966</v>
       </c>
       <c r="R14" t="n">
         <v>178.3296493245552</v>
@@ -28406,13 +28406,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>39.21166206961286</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -28421,10 +28421,10 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J15" t="n">
         <v>52.45818464705464</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.846506480668491</v>
       </c>
       <c r="R15" t="n">
         <v>134.7086383504341</v>
@@ -28463,7 +28463,7 @@
         <v>178.3296493245552</v>
       </c>
       <c r="V15" t="n">
-        <v>178.3296493245552</v>
+        <v>52.08654386482061</v>
       </c>
       <c r="W15" t="n">
         <v>178.3296493245552</v>
@@ -28472,7 +28472,7 @@
         <v>178.3296493245552</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.3296493245552</v>
+        <v>97.34482426793183</v>
       </c>
     </row>
     <row r="16">
@@ -28482,52 +28482,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.3296493245552</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>178.3296493245552</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>178.3296493245552</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>178.3296493245552</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>178.3296493245552</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>178.3296493245552</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H16" t="n">
-        <v>178.3296493245552</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I16" t="n">
-        <v>178.3296493245552</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J16" t="n">
-        <v>147.9461382948214</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K16" t="n">
         <v>67.01246855587064</v>
       </c>
       <c r="L16" t="n">
-        <v>32.12940745055725</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="M16" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="N16" t="n">
-        <v>16.4970922298436</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="O16" t="n">
-        <v>37.45757960830504</v>
+        <v>85.5418344224625</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3296493245552</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.3296493245552</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R16" t="n">
         <v>178.3296493245552</v>
@@ -28585,34 +28585,34 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J17" t="n">
-        <v>265.3154769886095</v>
+        <v>76.75309993802782</v>
       </c>
       <c r="K17" t="n">
-        <v>6.684449518273155</v>
+        <v>6.684449518273169</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>43.32060937470625</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>112.4136397442805</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>154.6949327108984</v>
+        <v>15.04365268017747</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.67545097688964</v>
+        <v>89.67545097688966</v>
       </c>
       <c r="R17" t="n">
-        <v>194.8604380517429</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="S17" t="n">
-        <v>227.5093375700639</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="T17" t="n">
         <v>297.4245917920612</v>
@@ -28643,7 +28643,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>148.276368964085</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -28655,16 +28655,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.846506480668491</v>
       </c>
       <c r="R18" t="n">
         <v>134.7086383504341</v>
@@ -28697,7 +28697,7 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280576689302</v>
+        <v>196.8761042042533</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -28706,7 +28706,7 @@
         <v>78.14220652642996</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>28.75053738888897</v>
       </c>
       <c r="Y18" t="n">
         <v>34.82190908344398</v>
@@ -28752,13 +28752,13 @@
         <v>32.12940745055725</v>
       </c>
       <c r="M19" t="n">
-        <v>25.1932384637467</v>
+        <v>25.19323846374671</v>
       </c>
       <c r="N19" t="n">
-        <v>16.49709222984359</v>
+        <v>16.4970922298436</v>
       </c>
       <c r="O19" t="n">
-        <v>37.45757960830503</v>
+        <v>37.45757960830504</v>
       </c>
       <c r="P19" t="n">
         <v>58.46036931460877</v>
@@ -28767,7 +28767,7 @@
         <v>127.204364743505</v>
       </c>
       <c r="R19" t="n">
-        <v>203.4231839810568</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S19" t="n">
         <v>235.4354176286827</v>
@@ -28819,19 +28819,19 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4245917920612</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J20" t="n">
-        <v>232.487349057015</v>
+        <v>76.75309993802782</v>
       </c>
       <c r="K20" t="n">
-        <v>6.684449518273162</v>
+        <v>6.684449518273169</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>141.3165808583655</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>106.8246894514384</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28840,13 +28840,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.04365268017746</v>
+        <v>15.04365268017747</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.67545097688965</v>
+        <v>89.67545097688966</v>
       </c>
       <c r="R20" t="n">
-        <v>297.4245917920612</v>
+        <v>261.4453474749085</v>
       </c>
       <c r="S20" t="n">
         <v>297.4245917920612</v>
@@ -28892,7 +28892,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H21" t="n">
         <v>125.7337882414754</v>
@@ -28901,7 +28901,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J21" t="n">
-        <v>35.1168676305609</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,16 +28922,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.846506480668488</v>
+        <v>6.846506480668491</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>191.5874518930719</v>
+        <v>24.10615613382672</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9701989459033</v>
+        <v>26.40782189532166</v>
       </c>
       <c r="U21" t="n">
         <v>48.66568061834854</v>
@@ -28943,10 +28943,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>28.75053738888897</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.82190908344398</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -29056,43 +29056,43 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4245917920612</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J23" t="n">
         <v>76.75309993802782</v>
       </c>
       <c r="K23" t="n">
-        <v>6.684449518273162</v>
+        <v>181.3930170734953</v>
       </c>
       <c r="L23" t="n">
-        <v>141.3165808583655</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>112.4136397442806</v>
       </c>
       <c r="O23" t="n">
-        <v>153.9394642895417</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>170.2355231011989</v>
+        <v>15.04365268017747</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.67545097688965</v>
+        <v>89.67545097688966</v>
       </c>
       <c r="R23" t="n">
-        <v>194.8604380517429</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5093375700639</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="T23" t="n">
         <v>222.4644104852103</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505146112862</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="V23" t="n">
         <v>297.4245917920612</v>
@@ -29117,7 +29117,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>21.43240981821361</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -29132,7 +29132,7 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I24" t="n">
         <v>107.3572203790713</v>
@@ -29159,31 +29159,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.846506480668488</v>
+        <v>6.846506480668491</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5874518930719</v>
+        <v>3.025074842490096</v>
       </c>
       <c r="T24" t="n">
-        <v>26.4078218953216</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280576689302</v>
       </c>
       <c r="V24" t="n">
-        <v>52.08654386482056</v>
+        <v>52.08654386482044</v>
       </c>
       <c r="W24" t="n">
-        <v>172.4988914121871</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>34.82190908344381</v>
       </c>
     </row>
     <row r="25">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680322</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="27">
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29363,10 +29363,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>105.2878988678466</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>125.7337882414754</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.846506480668488</v>
+        <v>6.846506480668491</v>
       </c>
       <c r="R27" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.4669766680327</v>
+        <v>91.13958406887065</v>
       </c>
     </row>
     <row r="28">
@@ -29430,34 +29430,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C28" t="n">
-        <v>213.4669766680327</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>213.4669766680327</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>170.7430930462127</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G28" t="n">
         <v>168.7006242014745</v>
       </c>
       <c r="H28" t="n">
-        <v>213.4669766680327</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I28" t="n">
         <v>164.8484353357569</v>
       </c>
       <c r="J28" t="n">
-        <v>120.2289512774728</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K28" t="n">
-        <v>90.87570632797961</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L28" t="n">
         <v>32.12940745055725</v>
@@ -29478,28 +29478,28 @@
         <v>127.204364743505</v>
       </c>
       <c r="R28" t="n">
-        <v>213.4669766680327</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="29">
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>105.8472018028889</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -29606,7 +29606,7 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I30" t="n">
         <v>107.3572203790713</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.846506480668491</v>
       </c>
       <c r="R30" t="n">
         <v>134.7086383504341</v>
@@ -29642,22 +29642,22 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T30" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>213.4669766680327</v>
+        <v>9.98338935111218</v>
       </c>
       <c r="V30" t="n">
         <v>213.4669766680327</v>
       </c>
       <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>213.4669766680327</v>
       </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="31">
@@ -29667,10 +29667,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.4669766680327</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>213.4669766680327</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -29679,7 +29679,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="G31" t="n">
         <v>168.7006242014745</v>
@@ -29703,16 +29703,16 @@
         <v>25.19323846374671</v>
       </c>
       <c r="N31" t="n">
-        <v>16.4970922298436</v>
+        <v>164.6083327704806</v>
       </c>
       <c r="O31" t="n">
         <v>37.45757960830504</v>
       </c>
       <c r="P31" t="n">
-        <v>111.9892406811788</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q31" t="n">
-        <v>213.4669766680327</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R31" t="n">
         <v>213.4669766680327</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="I32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L32" t="n">
-        <v>213.4669766680323</v>
+        <v>213.4669766680326</v>
       </c>
       <c r="M32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="N32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="33">
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29846,10 +29846,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I33" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>52.45818464705464</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,31 +29870,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.846506480668488</v>
+        <v>6.846506480668513</v>
       </c>
       <c r="R33" t="n">
-        <v>107.9755454311792</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S33" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T33" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U33" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>213.4669766680327</v>
+        <v>117.3406097301835</v>
       </c>
       <c r="W33" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="34">
@@ -29907,46 +29907,46 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>213.4669766680327</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>163.9176162140375</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>213.4669766680327</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>213.4669766680327</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H34" t="n">
-        <v>213.4669766680327</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I34" t="n">
         <v>164.8484353357569</v>
       </c>
       <c r="J34" t="n">
-        <v>120.2289512774728</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K34" t="n">
-        <v>67.01246855587064</v>
+        <v>67.01246855587065</v>
       </c>
       <c r="L34" t="n">
-        <v>32.12940745055725</v>
+        <v>103.3021833198737</v>
       </c>
       <c r="M34" t="n">
-        <v>25.19323846374671</v>
+        <v>25.19323846374673</v>
       </c>
       <c r="N34" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984362</v>
       </c>
       <c r="O34" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P34" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460879</v>
       </c>
       <c r="Q34" t="n">
         <v>127.204364743505</v>
@@ -29955,25 +29955,25 @@
         <v>203.4231839810569</v>
       </c>
       <c r="S34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="35">
@@ -30007,28 +30007,28 @@
         <v>272.0596768448573</v>
       </c>
       <c r="J35" t="n">
-        <v>204.5908538636846</v>
+        <v>76.75309993802784</v>
       </c>
       <c r="K35" t="n">
-        <v>6.684449518273162</v>
+        <v>176.4001980258373</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>213.2125982824127</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>184.3096571683277</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>272.0596768448573</v>
+        <v>15.04365268017751</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0596768448573</v>
+        <v>89.67545097688969</v>
       </c>
       <c r="R35" t="n">
         <v>272.0596768448573</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -30074,10 +30074,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>53.16814147568519</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>125.7337882414754</v>
@@ -30086,7 +30086,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J36" t="n">
-        <v>52.45818464705464</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,19 +30107,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.846506480668513</v>
       </c>
       <c r="R36" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9701989459033</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -30128,7 +30128,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>31.16443483069366</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30168,28 +30168,28 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K37" t="n">
-        <v>67.01246855587064</v>
+        <v>67.01246855587065</v>
       </c>
       <c r="L37" t="n">
-        <v>32.12940745055725</v>
+        <v>32.12940745055727</v>
       </c>
       <c r="M37" t="n">
-        <v>25.19323846374671</v>
+        <v>25.19323846374673</v>
       </c>
       <c r="N37" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984362</v>
       </c>
       <c r="O37" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P37" t="n">
-        <v>94.01582503013334</v>
+        <v>58.46036931460879</v>
       </c>
       <c r="Q37" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R37" t="n">
-        <v>203.4231839810569</v>
+        <v>238.9786396965814</v>
       </c>
       <c r="S37" t="n">
         <v>235.4354176286827</v>
@@ -30241,13 +30241,13 @@
         <v>272.0596768448573</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0596768448573</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J38" t="n">
-        <v>272.0596768448573</v>
+        <v>76.75309993802784</v>
       </c>
       <c r="K38" t="n">
-        <v>6.684449518273162</v>
+        <v>267.142843992902</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30256,25 +30256,25 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>184.3096571683277</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>142.4934328013952</v>
       </c>
       <c r="P38" t="n">
-        <v>204.5908538636846</v>
+        <v>15.04365268017751</v>
       </c>
       <c r="Q38" t="n">
         <v>272.0596768448573</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0596768448573</v>
+        <v>194.860438051743</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0596768448573</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0596768448573</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U38" t="n">
         <v>272.0596768448573</v>
@@ -30302,16 +30302,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>148.7444246896586</v>
@@ -30320,10 +30320,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I39" t="n">
-        <v>107.3572203790713</v>
+        <v>67.24919243070411</v>
       </c>
       <c r="J39" t="n">
-        <v>52.45818464705464</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,28 +30344,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.846506480668488</v>
+        <v>6.846506480668513</v>
       </c>
       <c r="R39" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>214.9701989459033</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>6.246189102382743</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7836451728987</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30405,25 +30405,25 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K40" t="n">
-        <v>67.01246855587064</v>
+        <v>67.01246855587065</v>
       </c>
       <c r="L40" t="n">
-        <v>32.12940745055725</v>
+        <v>32.12940745055727</v>
       </c>
       <c r="M40" t="n">
-        <v>25.19323846374671</v>
+        <v>25.19323846374673</v>
       </c>
       <c r="N40" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984362</v>
       </c>
       <c r="O40" t="n">
-        <v>37.45757960830504</v>
+        <v>73.01303532382963</v>
       </c>
       <c r="P40" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460879</v>
       </c>
       <c r="Q40" t="n">
-        <v>162.7598204590296</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R40" t="n">
         <v>203.4231839810569</v>
@@ -30487,22 +30487,22 @@
         <v>240.9968149183972</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>240.9968149183972</v>
+        <v>205.8613155524741</v>
       </c>
       <c r="O41" t="n">
-        <v>54.53995161096604</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.9968149183972</v>
+        <v>89.67545097688969</v>
       </c>
       <c r="R41" t="n">
         <v>240.9968149183972</v>
@@ -30557,10 +30557,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3572203790713</v>
+        <v>76.04752424238836</v>
       </c>
       <c r="J42" t="n">
-        <v>52.45818464705464</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.846506480668488</v>
+        <v>6.846506480668513</v>
       </c>
       <c r="R42" t="n">
         <v>134.7086383504341</v>
@@ -30590,22 +30590,22 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>218.1012059698364</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>240.9968149183972</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -30627,7 +30627,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>155.8879681954307</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>168.7006242014745</v>
@@ -30639,25 +30639,25 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J43" t="n">
-        <v>120.2289512774728</v>
+        <v>217.8058319856754</v>
       </c>
       <c r="K43" t="n">
-        <v>67.01246855587064</v>
+        <v>67.01246855587065</v>
       </c>
       <c r="L43" t="n">
-        <v>32.12940745055725</v>
+        <v>32.12940745055727</v>
       </c>
       <c r="M43" t="n">
-        <v>25.19323846374671</v>
+        <v>25.19323846374673</v>
       </c>
       <c r="N43" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984362</v>
       </c>
       <c r="O43" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P43" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460879</v>
       </c>
       <c r="Q43" t="n">
         <v>127.204364743505</v>
@@ -30669,7 +30669,7 @@
         <v>240.9968149183972</v>
       </c>
       <c r="T43" t="n">
-        <v>240.9968149183972</v>
+        <v>223.7609144406078</v>
       </c>
       <c r="U43" t="n">
         <v>240.9968149183972</v>
@@ -30718,7 +30718,7 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J44" t="n">
-        <v>240.9968149183972</v>
+        <v>76.7530999380278</v>
       </c>
       <c r="K44" t="n">
         <v>240.9968149183972</v>
@@ -30730,16 +30730,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>129.1082156144459</v>
       </c>
       <c r="O44" t="n">
-        <v>54.53995161096604</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="P44" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.9968149183972</v>
+        <v>89.67545097688964</v>
       </c>
       <c r="R44" t="n">
         <v>240.9968149183972</v>
@@ -30776,28 +30776,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>140.3514268912426</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H45" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>52.45818464705463</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,13 +30818,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.846506480668488</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>111.2047408147802</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.9701989459033</v>
@@ -30839,7 +30839,7 @@
         <v>240.9968149183972</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30864,10 +30864,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>169.768969499441</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>240.9968149183972</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H46" t="n">
         <v>165.8230575663656</v>
@@ -30882,16 +30882,16 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L46" t="n">
-        <v>32.12940745055725</v>
+        <v>32.12940745055724</v>
       </c>
       <c r="M46" t="n">
-        <v>25.19323846374671</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N46" t="n">
-        <v>16.4970922298436</v>
+        <v>76.50034200070584</v>
       </c>
       <c r="O46" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830502</v>
       </c>
       <c r="P46" t="n">
         <v>58.46036931460877</v>
@@ -30900,10 +30900,10 @@
         <v>127.204364743505</v>
       </c>
       <c r="R46" t="n">
-        <v>203.4231839810569</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="S46" t="n">
-        <v>235.4354176286827</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="T46" t="n">
         <v>223.7609144406078</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4070551490069147</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H11" t="n">
         <v>4.168753544767066</v>
@@ -31768,22 +31768,22 @@
         <v>64.23635542690874</v>
       </c>
       <c r="M11" t="n">
-        <v>71.47532243306047</v>
+        <v>71.47532243306046</v>
       </c>
       <c r="N11" t="n">
-        <v>72.63186787517637</v>
+        <v>72.63186787517635</v>
       </c>
       <c r="O11" t="n">
-        <v>68.58421323723886</v>
+        <v>68.58421323723884</v>
       </c>
       <c r="P11" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613063</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.95737672232049</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R11" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S11" t="n">
         <v>9.275769207995078</v>
@@ -31792,7 +31792,7 @@
         <v>1.78188391477777</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03256441192055317</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,22 +31835,22 @@
         <v>2.10342868142137</v>
       </c>
       <c r="I12" t="n">
-        <v>7.498599068645665</v>
+        <v>7.498599068645664</v>
       </c>
       <c r="J12" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K12" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L12" t="n">
-        <v>47.28893590997498</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M12" t="n">
-        <v>55.1839577319312</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N12" t="n">
-        <v>56.64451288810436</v>
+        <v>56.64451288810435</v>
       </c>
       <c r="O12" t="n">
         <v>51.81866288876704</v>
@@ -31868,7 +31868,7 @@
         <v>4.045422554868072</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8778614705841226</v>
+        <v>0.8778614705841224</v>
       </c>
       <c r="U12" t="n">
         <v>0.01432853325218917</v>
@@ -31911,43 +31911,43 @@
         <v>0.1825909264705198</v>
       </c>
       <c r="H13" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I13" t="n">
-        <v>5.491007134222544</v>
+        <v>5.491007134222543</v>
       </c>
       <c r="J13" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K13" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L13" t="n">
         <v>27.1462910136262</v>
       </c>
       <c r="M13" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N13" t="n">
         <v>27.94139150252966</v>
       </c>
       <c r="O13" t="n">
-        <v>25.80839749785131</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P13" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R13" t="n">
-        <v>8.209952021119918</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S13" t="n">
         <v>3.182061873127149</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7801612312831301</v>
+        <v>0.78016123128313</v>
       </c>
       <c r="U13" t="n">
         <v>0.009959505080210184</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4070551490069147</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H14" t="n">
         <v>4.168753544767066</v>
@@ -32005,22 +32005,22 @@
         <v>64.23635542690874</v>
       </c>
       <c r="M14" t="n">
-        <v>71.47532243306047</v>
+        <v>71.47532243306046</v>
       </c>
       <c r="N14" t="n">
-        <v>72.63186787517637</v>
+        <v>72.63186787517635</v>
       </c>
       <c r="O14" t="n">
-        <v>68.58421323723886</v>
+        <v>68.58421323723884</v>
       </c>
       <c r="P14" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613063</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.95737672232049</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R14" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S14" t="n">
         <v>9.275769207995078</v>
@@ -32029,7 +32029,7 @@
         <v>1.78188391477777</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03256441192055317</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,22 +32072,22 @@
         <v>2.10342868142137</v>
       </c>
       <c r="I15" t="n">
-        <v>7.498599068645665</v>
+        <v>7.498599068645664</v>
       </c>
       <c r="J15" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K15" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L15" t="n">
-        <v>47.28893590997498</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M15" t="n">
-        <v>55.1839577319312</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N15" t="n">
-        <v>56.64451288810436</v>
+        <v>56.64451288810435</v>
       </c>
       <c r="O15" t="n">
         <v>51.81866288876704</v>
@@ -32105,7 +32105,7 @@
         <v>4.045422554868072</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8778614705841226</v>
+        <v>0.8778614705841224</v>
       </c>
       <c r="U15" t="n">
         <v>0.01432853325218917</v>
@@ -32148,43 +32148,43 @@
         <v>0.1825909264705198</v>
       </c>
       <c r="H16" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I16" t="n">
-        <v>5.491007134222544</v>
+        <v>5.491007134222543</v>
       </c>
       <c r="J16" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K16" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L16" t="n">
         <v>27.1462910136262</v>
       </c>
       <c r="M16" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N16" t="n">
         <v>27.94139150252966</v>
       </c>
       <c r="O16" t="n">
-        <v>25.80839749785131</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P16" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R16" t="n">
-        <v>8.209952021119918</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S16" t="n">
         <v>3.182061873127149</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7801612312831301</v>
+        <v>0.78016123128313</v>
       </c>
       <c r="U16" t="n">
         <v>0.009959505080210184</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4070551490069148</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H17" t="n">
-        <v>4.168753544767067</v>
+        <v>4.168753544767066</v>
       </c>
       <c r="I17" t="n">
-        <v>15.6929936320891</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J17" t="n">
         <v>34.54829695302566</v>
       </c>
       <c r="K17" t="n">
-        <v>51.77894141048837</v>
+        <v>51.77894141048836</v>
       </c>
       <c r="L17" t="n">
-        <v>64.23635542690876</v>
+        <v>64.23635542690874</v>
       </c>
       <c r="M17" t="n">
-        <v>71.47532243306047</v>
+        <v>71.47532243306046</v>
       </c>
       <c r="N17" t="n">
-        <v>72.63186787517638</v>
+        <v>72.63186787517635</v>
       </c>
       <c r="O17" t="n">
-        <v>68.58421323723886</v>
+        <v>68.58421323723884</v>
       </c>
       <c r="P17" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613063</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.9573767223205</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R17" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S17" t="n">
-        <v>9.275769207995079</v>
+        <v>9.275769207995078</v>
       </c>
       <c r="T17" t="n">
         <v>1.78188391477777</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03256441192055318</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2177937054332754</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H18" t="n">
-        <v>2.103428681421371</v>
+        <v>2.10342868142137</v>
       </c>
       <c r="I18" t="n">
-        <v>7.498599068645666</v>
+        <v>7.498599068645664</v>
       </c>
       <c r="J18" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K18" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L18" t="n">
-        <v>47.28893590997499</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M18" t="n">
-        <v>55.18395773193121</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N18" t="n">
-        <v>56.64451288810437</v>
+        <v>56.64451288810435</v>
       </c>
       <c r="O18" t="n">
-        <v>51.81866288876705</v>
+        <v>51.81866288876704</v>
       </c>
       <c r="P18" t="n">
-        <v>41.58904538225414</v>
+        <v>41.58904538225413</v>
       </c>
       <c r="Q18" t="n">
         <v>27.80117545144757</v>
       </c>
       <c r="R18" t="n">
-        <v>13.522314447866</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S18" t="n">
-        <v>4.045422554868073</v>
+        <v>4.045422554868072</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8778614705841228</v>
+        <v>0.8778614705841224</v>
       </c>
       <c r="U18" t="n">
         <v>0.01432853325218917</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1825909264705199</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H19" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I19" t="n">
-        <v>5.491007134222545</v>
+        <v>5.491007134222543</v>
       </c>
       <c r="J19" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K19" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L19" t="n">
         <v>27.1462910136262</v>
       </c>
       <c r="M19" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N19" t="n">
-        <v>27.94139150252967</v>
+        <v>27.94139150252966</v>
       </c>
       <c r="O19" t="n">
-        <v>25.80839749785131</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P19" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R19" t="n">
-        <v>8.20995202111992</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S19" t="n">
-        <v>3.18206187312715</v>
+        <v>3.182061873127149</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7801612312831302</v>
+        <v>0.78016123128313</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009959505080210186</v>
+        <v>0.009959505080210184</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4070551490069147</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H20" t="n">
         <v>4.168753544767066</v>
@@ -32479,22 +32479,22 @@
         <v>64.23635542690874</v>
       </c>
       <c r="M20" t="n">
-        <v>71.47532243306047</v>
+        <v>71.47532243306046</v>
       </c>
       <c r="N20" t="n">
-        <v>72.63186787517637</v>
+        <v>72.63186787517635</v>
       </c>
       <c r="O20" t="n">
-        <v>68.58421323723886</v>
+        <v>68.58421323723884</v>
       </c>
       <c r="P20" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613063</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.95737672232049</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R20" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S20" t="n">
         <v>9.275769207995078</v>
@@ -32503,7 +32503,7 @@
         <v>1.78188391477777</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03256441192055317</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,22 +32546,22 @@
         <v>2.10342868142137</v>
       </c>
       <c r="I21" t="n">
-        <v>7.498599068645665</v>
+        <v>7.498599068645664</v>
       </c>
       <c r="J21" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K21" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L21" t="n">
-        <v>47.28893590997498</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M21" t="n">
-        <v>55.1839577319312</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N21" t="n">
-        <v>56.64451288810436</v>
+        <v>56.64451288810435</v>
       </c>
       <c r="O21" t="n">
         <v>51.81866288876704</v>
@@ -32579,7 +32579,7 @@
         <v>4.045422554868072</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8778614705841226</v>
+        <v>0.8778614705841224</v>
       </c>
       <c r="U21" t="n">
         <v>0.01432853325218917</v>
@@ -32622,43 +32622,43 @@
         <v>0.1825909264705198</v>
       </c>
       <c r="H22" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I22" t="n">
-        <v>5.491007134222544</v>
+        <v>5.491007134222543</v>
       </c>
       <c r="J22" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K22" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L22" t="n">
         <v>27.1462910136262</v>
       </c>
       <c r="M22" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N22" t="n">
         <v>27.94139150252966</v>
       </c>
       <c r="O22" t="n">
-        <v>25.80839749785131</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P22" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R22" t="n">
-        <v>8.209952021119918</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S22" t="n">
         <v>3.182061873127149</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7801612312831301</v>
+        <v>0.78016123128313</v>
       </c>
       <c r="U22" t="n">
         <v>0.009959505080210184</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4070551490069147</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H23" t="n">
         <v>4.168753544767066</v>
@@ -32716,22 +32716,22 @@
         <v>64.23635542690874</v>
       </c>
       <c r="M23" t="n">
-        <v>71.47532243306047</v>
+        <v>71.47532243306046</v>
       </c>
       <c r="N23" t="n">
-        <v>72.63186787517637</v>
+        <v>72.63186787517635</v>
       </c>
       <c r="O23" t="n">
-        <v>68.58421323723886</v>
+        <v>68.58421323723884</v>
       </c>
       <c r="P23" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613063</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.95737672232049</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R23" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S23" t="n">
         <v>9.275769207995078</v>
@@ -32740,7 +32740,7 @@
         <v>1.78188391477777</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03256441192055317</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,22 +32783,22 @@
         <v>2.10342868142137</v>
       </c>
       <c r="I24" t="n">
-        <v>7.498599068645665</v>
+        <v>7.498599068645664</v>
       </c>
       <c r="J24" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K24" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L24" t="n">
-        <v>47.28893590997498</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M24" t="n">
-        <v>55.1839577319312</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N24" t="n">
-        <v>56.64451288810436</v>
+        <v>56.64451288810435</v>
       </c>
       <c r="O24" t="n">
         <v>51.81866288876704</v>
@@ -32816,7 +32816,7 @@
         <v>4.045422554868072</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8778614705841226</v>
+        <v>0.8778614705841224</v>
       </c>
       <c r="U24" t="n">
         <v>0.01432853325218917</v>
@@ -32859,43 +32859,43 @@
         <v>0.1825909264705198</v>
       </c>
       <c r="H25" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I25" t="n">
-        <v>5.491007134222544</v>
+        <v>5.491007134222543</v>
       </c>
       <c r="J25" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K25" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L25" t="n">
         <v>27.1462910136262</v>
       </c>
       <c r="M25" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N25" t="n">
         <v>27.94139150252966</v>
       </c>
       <c r="O25" t="n">
-        <v>25.80839749785131</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P25" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R25" t="n">
-        <v>8.209952021119918</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S25" t="n">
         <v>3.182061873127149</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7801612312831301</v>
+        <v>0.78016123128313</v>
       </c>
       <c r="U25" t="n">
         <v>0.009959505080210184</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4070551490069147</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H26" t="n">
         <v>4.168753544767066</v>
@@ -32953,22 +32953,22 @@
         <v>64.23635542690874</v>
       </c>
       <c r="M26" t="n">
-        <v>71.47532243306047</v>
+        <v>71.47532243306046</v>
       </c>
       <c r="N26" t="n">
-        <v>72.63186787517637</v>
+        <v>72.63186787517635</v>
       </c>
       <c r="O26" t="n">
-        <v>68.58421323723886</v>
+        <v>68.58421323723884</v>
       </c>
       <c r="P26" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613063</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.95737672232049</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R26" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S26" t="n">
         <v>9.275769207995078</v>
@@ -32977,7 +32977,7 @@
         <v>1.78188391477777</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03256441192055317</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,22 +33020,22 @@
         <v>2.10342868142137</v>
       </c>
       <c r="I27" t="n">
-        <v>7.498599068645665</v>
+        <v>7.498599068645664</v>
       </c>
       <c r="J27" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K27" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L27" t="n">
-        <v>47.28893590997498</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M27" t="n">
-        <v>55.1839577319312</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N27" t="n">
-        <v>56.64451288810436</v>
+        <v>56.64451288810435</v>
       </c>
       <c r="O27" t="n">
         <v>51.81866288876704</v>
@@ -33053,7 +33053,7 @@
         <v>4.045422554868072</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8778614705841226</v>
+        <v>0.8778614705841224</v>
       </c>
       <c r="U27" t="n">
         <v>0.01432853325218917</v>
@@ -33096,43 +33096,43 @@
         <v>0.1825909264705198</v>
       </c>
       <c r="H28" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I28" t="n">
-        <v>5.491007134222544</v>
+        <v>5.491007134222543</v>
       </c>
       <c r="J28" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K28" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L28" t="n">
         <v>27.1462910136262</v>
       </c>
       <c r="M28" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N28" t="n">
         <v>27.94139150252966</v>
       </c>
       <c r="O28" t="n">
-        <v>25.80839749785131</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P28" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R28" t="n">
-        <v>8.209952021119918</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S28" t="n">
         <v>3.182061873127149</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7801612312831301</v>
+        <v>0.78016123128313</v>
       </c>
       <c r="U28" t="n">
         <v>0.009959505080210184</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4070551490069147</v>
+        <v>0.4070551490069146</v>
       </c>
       <c r="H29" t="n">
         <v>4.168753544767066</v>
@@ -33190,22 +33190,22 @@
         <v>64.23635542690874</v>
       </c>
       <c r="M29" t="n">
-        <v>71.47532243306047</v>
+        <v>71.47532243306046</v>
       </c>
       <c r="N29" t="n">
-        <v>72.63186787517637</v>
+        <v>72.63186787517635</v>
       </c>
       <c r="O29" t="n">
-        <v>68.58421323723886</v>
+        <v>68.58421323723884</v>
       </c>
       <c r="P29" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613063</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.95737672232049</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R29" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S29" t="n">
         <v>9.275769207995078</v>
@@ -33214,7 +33214,7 @@
         <v>1.78188391477777</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03256441192055317</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,22 +33257,22 @@
         <v>2.10342868142137</v>
       </c>
       <c r="I30" t="n">
-        <v>7.498599068645665</v>
+        <v>7.498599068645664</v>
       </c>
       <c r="J30" t="n">
         <v>20.57672898569379</v>
       </c>
       <c r="K30" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L30" t="n">
-        <v>47.28893590997498</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M30" t="n">
-        <v>55.1839577319312</v>
+        <v>55.18395773193119</v>
       </c>
       <c r="N30" t="n">
-        <v>56.64451288810436</v>
+        <v>56.64451288810435</v>
       </c>
       <c r="O30" t="n">
         <v>51.81866288876704</v>
@@ -33290,7 +33290,7 @@
         <v>4.045422554868072</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8778614705841226</v>
+        <v>0.8778614705841224</v>
       </c>
       <c r="U30" t="n">
         <v>0.01432853325218917</v>
@@ -33333,43 +33333,43 @@
         <v>0.1825909264705198</v>
       </c>
       <c r="H31" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I31" t="n">
-        <v>5.491007134222544</v>
+        <v>5.491007134222543</v>
       </c>
       <c r="J31" t="n">
         <v>12.90917850146575</v>
       </c>
       <c r="K31" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L31" t="n">
         <v>27.1462910136262</v>
       </c>
       <c r="M31" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N31" t="n">
         <v>27.94139150252966</v>
       </c>
       <c r="O31" t="n">
-        <v>25.80839749785131</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P31" t="n">
         <v>22.08354259785268</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R31" t="n">
-        <v>8.209952021119918</v>
+        <v>8.209952021119916</v>
       </c>
       <c r="S31" t="n">
         <v>3.182061873127149</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7801612312831301</v>
+        <v>0.78016123128313</v>
       </c>
       <c r="U31" t="n">
         <v>0.009959505080210184</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4070551490069147</v>
+        <v>0.4070551490069144</v>
       </c>
       <c r="H32" t="n">
-        <v>4.168753544767066</v>
+        <v>4.168753544767063</v>
       </c>
       <c r="I32" t="n">
-        <v>15.69299363208909</v>
+        <v>15.69299363208908</v>
       </c>
       <c r="J32" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302563</v>
       </c>
       <c r="K32" t="n">
-        <v>51.77894141048836</v>
+        <v>51.77894141048832</v>
       </c>
       <c r="L32" t="n">
-        <v>64.23635542690874</v>
+        <v>64.23635542690869</v>
       </c>
       <c r="M32" t="n">
-        <v>71.47532243306047</v>
+        <v>71.4753224330604</v>
       </c>
       <c r="N32" t="n">
-        <v>72.63186787517637</v>
+        <v>72.63186787517631</v>
       </c>
       <c r="O32" t="n">
-        <v>68.58421323723886</v>
+        <v>68.5842132372388</v>
       </c>
       <c r="P32" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613059</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.95737672232049</v>
+        <v>43.95737672232045</v>
       </c>
       <c r="R32" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380561</v>
       </c>
       <c r="S32" t="n">
-        <v>9.275769207995078</v>
+        <v>9.27576920799507</v>
       </c>
       <c r="T32" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03256441192055317</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2177937054332753</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H33" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I33" t="n">
-        <v>7.498599068645665</v>
+        <v>7.498599068645659</v>
       </c>
       <c r="J33" t="n">
-        <v>20.57672898569379</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K33" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972321</v>
       </c>
       <c r="L33" t="n">
-        <v>47.28893590997498</v>
+        <v>47.28893590997495</v>
       </c>
       <c r="M33" t="n">
-        <v>55.1839577319312</v>
+        <v>55.18395773193116</v>
       </c>
       <c r="N33" t="n">
-        <v>56.64451288810436</v>
+        <v>56.64451288810432</v>
       </c>
       <c r="O33" t="n">
-        <v>51.81866288876704</v>
+        <v>51.818662888767</v>
       </c>
       <c r="P33" t="n">
-        <v>41.58904538225413</v>
+        <v>41.5890453822541</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R33" t="n">
-        <v>13.52231444786599</v>
+        <v>13.52231444786598</v>
       </c>
       <c r="S33" t="n">
-        <v>4.045422554868072</v>
+        <v>4.045422554868068</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8778614705841226</v>
+        <v>0.8778614705841219</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01432853325218917</v>
+        <v>0.01432853325218916</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1825909264705198</v>
+        <v>0.1825909264705197</v>
       </c>
       <c r="H34" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074258</v>
       </c>
       <c r="I34" t="n">
-        <v>5.491007134222544</v>
+        <v>5.491007134222539</v>
       </c>
       <c r="J34" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K34" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084765</v>
       </c>
       <c r="L34" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362618</v>
       </c>
       <c r="M34" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301064</v>
       </c>
       <c r="N34" t="n">
-        <v>27.94139150252966</v>
+        <v>27.94139150252964</v>
       </c>
       <c r="O34" t="n">
-        <v>25.80839749785131</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P34" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R34" t="n">
-        <v>8.209952021119918</v>
+        <v>8.209952021119911</v>
       </c>
       <c r="S34" t="n">
-        <v>3.182061873127149</v>
+        <v>3.182061873127147</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7801612312831301</v>
+        <v>0.7801612312831294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009959505080210184</v>
+        <v>0.009959505080210177</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4070551490069147</v>
+        <v>0.4070551490069144</v>
       </c>
       <c r="H35" t="n">
-        <v>4.168753544767066</v>
+        <v>4.168753544767063</v>
       </c>
       <c r="I35" t="n">
-        <v>15.69299363208909</v>
+        <v>15.69299363208908</v>
       </c>
       <c r="J35" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302563</v>
       </c>
       <c r="K35" t="n">
-        <v>51.77894141048836</v>
+        <v>51.77894141048832</v>
       </c>
       <c r="L35" t="n">
-        <v>64.23635542690874</v>
+        <v>64.23635542690869</v>
       </c>
       <c r="M35" t="n">
-        <v>71.47532243306047</v>
+        <v>71.4753224330604</v>
       </c>
       <c r="N35" t="n">
-        <v>72.63186787517637</v>
+        <v>72.63186787517631</v>
       </c>
       <c r="O35" t="n">
-        <v>68.58421323723886</v>
+        <v>68.5842132372388</v>
       </c>
       <c r="P35" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613059</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.95737672232049</v>
+        <v>43.95737672232045</v>
       </c>
       <c r="R35" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380561</v>
       </c>
       <c r="S35" t="n">
-        <v>9.275769207995078</v>
+        <v>9.27576920799507</v>
       </c>
       <c r="T35" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03256441192055317</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2177937054332753</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H36" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I36" t="n">
-        <v>7.498599068645665</v>
+        <v>7.498599068645659</v>
       </c>
       <c r="J36" t="n">
-        <v>20.57672898569379</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K36" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972321</v>
       </c>
       <c r="L36" t="n">
-        <v>47.28893590997498</v>
+        <v>47.28893590997495</v>
       </c>
       <c r="M36" t="n">
-        <v>55.1839577319312</v>
+        <v>55.18395773193116</v>
       </c>
       <c r="N36" t="n">
-        <v>56.64451288810436</v>
+        <v>56.64451288810432</v>
       </c>
       <c r="O36" t="n">
-        <v>51.81866288876704</v>
+        <v>51.818662888767</v>
       </c>
       <c r="P36" t="n">
-        <v>41.58904538225413</v>
+        <v>41.5890453822541</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R36" t="n">
-        <v>13.52231444786599</v>
+        <v>13.52231444786598</v>
       </c>
       <c r="S36" t="n">
-        <v>4.045422554868072</v>
+        <v>4.045422554868068</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8778614705841226</v>
+        <v>0.8778614705841219</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01432853325218917</v>
+        <v>0.01432853325218916</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1825909264705198</v>
+        <v>0.1825909264705197</v>
       </c>
       <c r="H37" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074258</v>
       </c>
       <c r="I37" t="n">
-        <v>5.491007134222544</v>
+        <v>5.491007134222539</v>
       </c>
       <c r="J37" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K37" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084765</v>
       </c>
       <c r="L37" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362618</v>
       </c>
       <c r="M37" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301064</v>
       </c>
       <c r="N37" t="n">
-        <v>27.94139150252966</v>
+        <v>27.94139150252964</v>
       </c>
       <c r="O37" t="n">
-        <v>25.80839749785131</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P37" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R37" t="n">
-        <v>8.209952021119918</v>
+        <v>8.209952021119911</v>
       </c>
       <c r="S37" t="n">
-        <v>3.182061873127149</v>
+        <v>3.182061873127147</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7801612312831301</v>
+        <v>0.7801612312831294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009959505080210184</v>
+        <v>0.009959505080210177</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4070551490069147</v>
+        <v>0.4070551490069144</v>
       </c>
       <c r="H38" t="n">
-        <v>4.168753544767066</v>
+        <v>4.168753544767063</v>
       </c>
       <c r="I38" t="n">
-        <v>15.69299363208909</v>
+        <v>15.69299363208908</v>
       </c>
       <c r="J38" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302563</v>
       </c>
       <c r="K38" t="n">
-        <v>51.77894141048836</v>
+        <v>51.77894141048832</v>
       </c>
       <c r="L38" t="n">
-        <v>64.23635542690874</v>
+        <v>64.23635542690869</v>
       </c>
       <c r="M38" t="n">
-        <v>71.47532243306047</v>
+        <v>71.4753224330604</v>
       </c>
       <c r="N38" t="n">
-        <v>72.63186787517637</v>
+        <v>72.63186787517631</v>
       </c>
       <c r="O38" t="n">
-        <v>68.58421323723886</v>
+        <v>68.5842132372388</v>
       </c>
       <c r="P38" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613059</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.95737672232049</v>
+        <v>43.95737672232045</v>
       </c>
       <c r="R38" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380561</v>
       </c>
       <c r="S38" t="n">
-        <v>9.275769207995078</v>
+        <v>9.27576920799507</v>
       </c>
       <c r="T38" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03256441192055317</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2177937054332753</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H39" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I39" t="n">
-        <v>7.498599068645665</v>
+        <v>7.498599068645659</v>
       </c>
       <c r="J39" t="n">
-        <v>20.57672898569379</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K39" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972321</v>
       </c>
       <c r="L39" t="n">
-        <v>47.28893590997498</v>
+        <v>47.28893590997495</v>
       </c>
       <c r="M39" t="n">
-        <v>55.1839577319312</v>
+        <v>55.18395773193116</v>
       </c>
       <c r="N39" t="n">
-        <v>56.64451288810436</v>
+        <v>56.64451288810432</v>
       </c>
       <c r="O39" t="n">
-        <v>51.81866288876704</v>
+        <v>51.818662888767</v>
       </c>
       <c r="P39" t="n">
-        <v>41.58904538225413</v>
+        <v>41.5890453822541</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R39" t="n">
-        <v>13.52231444786599</v>
+        <v>13.52231444786598</v>
       </c>
       <c r="S39" t="n">
-        <v>4.045422554868072</v>
+        <v>4.045422554868068</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8778614705841226</v>
+        <v>0.8778614705841219</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01432853325218917</v>
+        <v>0.01432853325218916</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1825909264705198</v>
+        <v>0.1825909264705197</v>
       </c>
       <c r="H40" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074258</v>
       </c>
       <c r="I40" t="n">
-        <v>5.491007134222544</v>
+        <v>5.491007134222539</v>
       </c>
       <c r="J40" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K40" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084765</v>
       </c>
       <c r="L40" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362618</v>
       </c>
       <c r="M40" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301064</v>
       </c>
       <c r="N40" t="n">
-        <v>27.94139150252966</v>
+        <v>27.94139150252964</v>
       </c>
       <c r="O40" t="n">
-        <v>25.80839749785131</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P40" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R40" t="n">
-        <v>8.209952021119918</v>
+        <v>8.209952021119911</v>
       </c>
       <c r="S40" t="n">
-        <v>3.182061873127149</v>
+        <v>3.182061873127147</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7801612312831301</v>
+        <v>0.7801612312831294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009959505080210184</v>
+        <v>0.009959505080210177</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4070551490069147</v>
+        <v>0.4070551490069144</v>
       </c>
       <c r="H41" t="n">
-        <v>4.168753544767066</v>
+        <v>4.168753544767063</v>
       </c>
       <c r="I41" t="n">
-        <v>15.69299363208909</v>
+        <v>15.69299363208908</v>
       </c>
       <c r="J41" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302563</v>
       </c>
       <c r="K41" t="n">
-        <v>51.77894141048836</v>
+        <v>51.77894141048832</v>
       </c>
       <c r="L41" t="n">
-        <v>64.23635542690874</v>
+        <v>64.23635542690869</v>
       </c>
       <c r="M41" t="n">
-        <v>71.47532243306047</v>
+        <v>71.4753224330604</v>
       </c>
       <c r="N41" t="n">
-        <v>72.63186787517637</v>
+        <v>72.63186787517631</v>
       </c>
       <c r="O41" t="n">
-        <v>68.58421323723886</v>
+        <v>68.5842132372388</v>
       </c>
       <c r="P41" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613059</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.95737672232049</v>
+        <v>43.95737672232045</v>
       </c>
       <c r="R41" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380561</v>
       </c>
       <c r="S41" t="n">
-        <v>9.275769207995078</v>
+        <v>9.27576920799507</v>
       </c>
       <c r="T41" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03256441192055317</v>
+        <v>0.03256441192055314</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2177937054332753</v>
+        <v>0.2177937054332751</v>
       </c>
       <c r="H42" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421368</v>
       </c>
       <c r="I42" t="n">
-        <v>7.498599068645665</v>
+        <v>7.498599068645659</v>
       </c>
       <c r="J42" t="n">
-        <v>20.57672898569379</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K42" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972321</v>
       </c>
       <c r="L42" t="n">
-        <v>47.28893590997498</v>
+        <v>47.28893590997495</v>
       </c>
       <c r="M42" t="n">
-        <v>55.1839577319312</v>
+        <v>55.18395773193116</v>
       </c>
       <c r="N42" t="n">
-        <v>56.64451288810436</v>
+        <v>56.64451288810432</v>
       </c>
       <c r="O42" t="n">
-        <v>51.81866288876704</v>
+        <v>51.818662888767</v>
       </c>
       <c r="P42" t="n">
-        <v>41.58904538225413</v>
+        <v>41.5890453822541</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144754</v>
       </c>
       <c r="R42" t="n">
-        <v>13.52231444786599</v>
+        <v>13.52231444786598</v>
       </c>
       <c r="S42" t="n">
-        <v>4.045422554868072</v>
+        <v>4.045422554868068</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8778614705841226</v>
+        <v>0.8778614705841219</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01432853325218917</v>
+        <v>0.01432853325218916</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1825909264705198</v>
+        <v>0.1825909264705197</v>
       </c>
       <c r="H43" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074258</v>
       </c>
       <c r="I43" t="n">
-        <v>5.491007134222544</v>
+        <v>5.491007134222539</v>
       </c>
       <c r="J43" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K43" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084765</v>
       </c>
       <c r="L43" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362618</v>
       </c>
       <c r="M43" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301064</v>
       </c>
       <c r="N43" t="n">
-        <v>27.94139150252966</v>
+        <v>27.94139150252964</v>
       </c>
       <c r="O43" t="n">
-        <v>25.80839749785131</v>
+        <v>25.80839749785128</v>
       </c>
       <c r="P43" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785266</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563597</v>
       </c>
       <c r="R43" t="n">
-        <v>8.209952021119918</v>
+        <v>8.209952021119911</v>
       </c>
       <c r="S43" t="n">
-        <v>3.182061873127149</v>
+        <v>3.182061873127147</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7801612312831301</v>
+        <v>0.7801612312831294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009959505080210184</v>
+        <v>0.009959505080210177</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4070551490069147</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H44" t="n">
-        <v>4.168753544767066</v>
+        <v>4.168753544767068</v>
       </c>
       <c r="I44" t="n">
-        <v>15.69299363208909</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J44" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302567</v>
       </c>
       <c r="K44" t="n">
-        <v>51.77894141048836</v>
+        <v>51.77894141048838</v>
       </c>
       <c r="L44" t="n">
-        <v>64.23635542690874</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M44" t="n">
-        <v>71.47532243306047</v>
+        <v>71.47532243306048</v>
       </c>
       <c r="N44" t="n">
-        <v>72.63186787517637</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O44" t="n">
-        <v>68.58421323723886</v>
+        <v>68.58421323723887</v>
       </c>
       <c r="P44" t="n">
-        <v>58.53503924613064</v>
+        <v>58.53503924613065</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.95737672232049</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R44" t="n">
         <v>25.56967800380563</v>
       </c>
       <c r="S44" t="n">
-        <v>9.275769207995078</v>
+        <v>9.275769207995081</v>
       </c>
       <c r="T44" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777771</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03256441192055317</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2177937054332753</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H45" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I45" t="n">
-        <v>7.498599068645665</v>
+        <v>7.498599068645667</v>
       </c>
       <c r="J45" t="n">
-        <v>20.57672898569379</v>
+        <v>20.5767289856938</v>
       </c>
       <c r="K45" t="n">
-        <v>35.16890724972324</v>
+        <v>35.16890724972325</v>
       </c>
       <c r="L45" t="n">
-        <v>47.28893590997498</v>
+        <v>47.288935909975</v>
       </c>
       <c r="M45" t="n">
-        <v>55.1839577319312</v>
+        <v>55.18395773193122</v>
       </c>
       <c r="N45" t="n">
-        <v>56.64451288810436</v>
+        <v>56.64451288810438</v>
       </c>
       <c r="O45" t="n">
-        <v>51.81866288876704</v>
+        <v>51.81866288876706</v>
       </c>
       <c r="P45" t="n">
-        <v>41.58904538225413</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144758</v>
       </c>
       <c r="R45" t="n">
-        <v>13.52231444786599</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S45" t="n">
-        <v>4.045422554868072</v>
+        <v>4.045422554868074</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8778614705841226</v>
+        <v>0.8778614705841229</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01432853325218917</v>
+        <v>0.01432853325218918</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1825909264705198</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H46" t="n">
         <v>1.62339932807426</v>
       </c>
       <c r="I46" t="n">
-        <v>5.491007134222544</v>
+        <v>5.491007134222546</v>
       </c>
       <c r="J46" t="n">
-        <v>12.90917850146575</v>
+        <v>12.90917850146576</v>
       </c>
       <c r="K46" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L46" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362621</v>
       </c>
       <c r="M46" t="n">
         <v>28.62195768301067</v>
       </c>
       <c r="N46" t="n">
-        <v>27.94139150252966</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O46" t="n">
         <v>25.80839749785131</v>
       </c>
       <c r="P46" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785269</v>
       </c>
       <c r="Q46" t="n">
         <v>15.28950021563599</v>
       </c>
       <c r="R46" t="n">
-        <v>8.209952021119918</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S46" t="n">
-        <v>3.182061873127149</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7801612312831301</v>
+        <v>0.7801612312831303</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009959505080210184</v>
+        <v>0.009959505080210188</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.5765493865274</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>153.3589480640215</v>
+        <v>170.0802237851229</v>
       </c>
       <c r="L11" t="n">
-        <v>47.24579619221618</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="M11" t="n">
-        <v>81.73768759914323</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="N11" t="n">
-        <v>76.14873730630117</v>
+        <v>76.14873730630116</v>
       </c>
       <c r="O11" t="n">
-        <v>34.62291276104003</v>
+        <v>34.62291276104001</v>
       </c>
       <c r="P11" t="n">
-        <v>163.2859966443778</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.6541983476656</v>
+        <v>88.65419834766558</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L12" t="n">
         <v>118.55713633517</v>
       </c>
       <c r="M12" t="n">
-        <v>183.557317657069</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N12" t="n">
         <v>188.5623770505816</v>
@@ -35504,7 +35504,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P12" t="n">
-        <v>84.50414241545053</v>
+        <v>84.5041424154506</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,49 +35541,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.7127286595871567</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11.8724683525829</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>33.14699907384454</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.4027671061086</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.629025123080803</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.50659175818963</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.48121398879837</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>71.30686411648894</v>
       </c>
       <c r="L13" t="n">
         <v>146.200241873998</v>
       </c>
       <c r="M13" t="n">
-        <v>153.1364108608086</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>158.7915273278188</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>119.8692800099465</v>
       </c>
       <c r="Q13" t="n">
         <v>51.12528458105025</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.5765493865274</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,19 +35653,19 @@
         <v>47.24579619221618</v>
       </c>
       <c r="M14" t="n">
-        <v>81.73768759914323</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="N14" t="n">
-        <v>76.14873730630117</v>
+        <v>158.9742793635358</v>
       </c>
       <c r="O14" t="n">
-        <v>187.9818608250616</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="P14" t="n">
-        <v>163.2859966443777</v>
+        <v>163.2859966443778</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.65419834766557</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P15" t="n">
-        <v>84.50414241545053</v>
+        <v>84.50414241545052</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,52 +35778,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7127286595871283</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>11.87246835258287</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>33.14699907384451</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>36.65350811233023</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.40276710610857</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.629025123080774</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>12.5065917581896</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>13.48121398879835</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>27.71718701734862</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>146.200241873998</v>
       </c>
       <c r="M16" t="n">
-        <v>153.1364108608085</v>
+        <v>153.1364108608086</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>161.8325570947117</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>48.08425481415745</v>
       </c>
       <c r="P16" t="n">
-        <v>119.8692800099465</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.12528458105022</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.42777687366396</v>
+        <v>56.42777687366401</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>90.56640556692243</v>
+      </c>
+      <c r="M17" t="n">
+        <v>81.73768759914321</v>
+      </c>
+      <c r="N17" t="n">
         <v>188.5623770505816</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>47.24579619221619</v>
-      </c>
-      <c r="M17" t="n">
-        <v>81.73768759914323</v>
-      </c>
-      <c r="N17" t="n">
-        <v>76.14873730630119</v>
-      </c>
       <c r="O17" t="n">
-        <v>34.62291276104003</v>
+        <v>34.62291276104001</v>
       </c>
       <c r="P17" t="n">
-        <v>139.651280030721</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>102.5641537403183</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.9152542219973</v>
       </c>
       <c r="T17" t="n">
-        <v>74.96018130685088</v>
+        <v>74.96018130685094</v>
       </c>
       <c r="U17" t="n">
-        <v>47.27407718077492</v>
+        <v>47.27407718077497</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L18" t="n">
         <v>118.55713633517</v>
       </c>
       <c r="M18" t="n">
-        <v>183.5573176570688</v>
+        <v>183.557317657069</v>
       </c>
       <c r="N18" t="n">
         <v>188.5623770505816</v>
@@ -35978,7 +35978,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P18" t="n">
-        <v>84.50414241545053</v>
+        <v>84.50414241545052</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,25 +36115,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.42777687366395</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>155.7342491189872</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.24579619221618</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="M20" t="n">
-        <v>81.73768759914323</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="N20" t="n">
-        <v>76.14873730630117</v>
+        <v>76.14873730630116</v>
       </c>
       <c r="O20" t="n">
-        <v>34.62291276104003</v>
+        <v>34.62291276104001</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5641537403182</v>
+        <v>66.58490942316554</v>
       </c>
       <c r="S20" t="n">
         <v>69.91525422199724</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.37582528515641</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L21" t="n">
         <v>118.55713633517</v>
@@ -36215,7 +36215,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P21" t="n">
-        <v>84.50414241545053</v>
+        <v>84.50414241545052</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.42777687366395</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>174.7085675552221</v>
       </c>
       <c r="L23" t="n">
-        <v>188.5623770505817</v>
+        <v>47.24579619221618</v>
       </c>
       <c r="M23" t="n">
-        <v>81.73768759914323</v>
+        <v>81.73768759914321</v>
       </c>
       <c r="N23" t="n">
-        <v>76.14873730630117</v>
+        <v>188.5623770505818</v>
       </c>
       <c r="O23" t="n">
-        <v>188.5623770505817</v>
+        <v>34.62291276104001</v>
       </c>
       <c r="P23" t="n">
-        <v>155.1918704210214</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.5641537403182</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.91525422199724</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.27407718077492</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L24" t="n">
         <v>118.55713633517</v>
       </c>
       <c r="M24" t="n">
-        <v>183.5573176570691</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N24" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505824</v>
       </c>
       <c r="O24" t="n">
         <v>133.0740275578656</v>
       </c>
       <c r="P24" t="n">
-        <v>84.50414241545053</v>
+        <v>84.50414241545052</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7138767300049</v>
+        <v>136.713876730005</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7825271497595</v>
+        <v>206.7825271497591</v>
       </c>
       <c r="L26" t="n">
         <v>260.7127728602489</v>
       </c>
       <c r="M26" t="n">
-        <v>295.2046642671759</v>
+        <v>295.204664267176</v>
       </c>
       <c r="N26" t="n">
         <v>289.6157139743339</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0898894290727</v>
+        <v>248.0898894290728</v>
       </c>
       <c r="P26" t="n">
         <v>198.4233239878553</v>
@@ -36616,7 +36616,7 @@
         <v>123.7915256911431</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60653861628979</v>
+        <v>18.60653861628984</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L27" t="n">
         <v>118.55713633517</v>
@@ -36689,7 +36689,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P27" t="n">
-        <v>84.50414241545053</v>
+        <v>84.50414241545052</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,34 +36726,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.85005600306462</v>
+        <v>35.85005600306468</v>
       </c>
       <c r="C28" t="n">
-        <v>47.00979569606037</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>68.28432641732201</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>29.06695183398773</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>74.54009444958612</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.64391910166709</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.23802539056</v>
       </c>
       <c r="K28" t="n">
-        <v>23.86323777210897</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.04379268697586</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>136.7138767300049</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7825271497596</v>
+        <v>206.7825271497595</v>
       </c>
       <c r="L29" t="n">
         <v>260.7127728602489</v>
       </c>
       <c r="M29" t="n">
-        <v>295.204664267176</v>
+        <v>295.2046642671759</v>
       </c>
       <c r="N29" t="n">
         <v>289.6157139743339</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0898894290728</v>
+        <v>248.0898894290727</v>
       </c>
       <c r="P29" t="n">
-        <v>198.4233239878553</v>
+        <v>198.4233239878552</v>
       </c>
       <c r="Q29" t="n">
         <v>123.7915256911431</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60653861628981</v>
+        <v>18.60653861628979</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515624</v>
       </c>
       <c r="L30" t="n">
         <v>118.55713633517</v>
@@ -36926,7 +36926,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P30" t="n">
-        <v>84.50414241545053</v>
+        <v>84.50414241545052</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36963,10 +36963,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.85005600306465</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>47.00979569606039</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36975,7 +36975,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>74.54009444958606</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36999,19 +36999,19 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>148.111240540637</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>53.52887136656998</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.26261192452775</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.04379268697589</v>
+        <v>10.04379268697586</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37072,16 +37072,16 @@
         <v>206.7825271497596</v>
       </c>
       <c r="L32" t="n">
-        <v>260.7127728602485</v>
+        <v>260.7127728602487</v>
       </c>
       <c r="M32" t="n">
-        <v>295.204664267176</v>
+        <v>295.2046642671759</v>
       </c>
       <c r="N32" t="n">
         <v>289.6157139743339</v>
       </c>
       <c r="O32" t="n">
-        <v>248.0898894290728</v>
+        <v>248.0898894290727</v>
       </c>
       <c r="P32" t="n">
         <v>198.4233239878553</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515622</v>
       </c>
       <c r="L33" t="n">
         <v>118.55713633517</v>
@@ -37157,13 +37157,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N33" t="n">
-        <v>207.0214827210604</v>
+        <v>207.0214827210603</v>
       </c>
       <c r="O33" t="n">
-        <v>133.0740275578656</v>
+        <v>133.0740275578655</v>
       </c>
       <c r="P33" t="n">
-        <v>84.50414241545053</v>
+        <v>84.50414241545049</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37203,34 +37203,34 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.00979569606039</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>18.7349659633268</v>
+        <v>68.28432641732206</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>74.54009444958609</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>44.7663524665583</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.64391910166712</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.23802539056</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>71.17277586931647</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.06286192646012</v>
+        <v>31.06286192646011</v>
       </c>
       <c r="J35" t="n">
-        <v>127.8377539256568</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>169.7157485075641</v>
       </c>
       <c r="L35" t="n">
-        <v>47.24579619221618</v>
+        <v>260.4583944746288</v>
       </c>
       <c r="M35" t="n">
-        <v>81.73768759914323</v>
+        <v>81.73768759914316</v>
       </c>
       <c r="N35" t="n">
-        <v>76.14873730630117</v>
+        <v>260.4583944746288</v>
       </c>
       <c r="O35" t="n">
-        <v>34.62291276104003</v>
+        <v>34.62291276103997</v>
       </c>
       <c r="P35" t="n">
-        <v>257.0160241646799</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3842258679677</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>77.1992387931144</v>
+        <v>77.19923879311439</v>
       </c>
       <c r="S35" t="n">
-        <v>44.55033927479341</v>
+        <v>44.5503392747934</v>
       </c>
       <c r="T35" t="n">
         <v>49.59526635964706</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515622</v>
       </c>
       <c r="L36" t="n">
         <v>118.55713633517</v>
@@ -37394,13 +37394,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N36" t="n">
-        <v>207.0214827210604</v>
+        <v>207.0214827210603</v>
       </c>
       <c r="O36" t="n">
-        <v>133.0740275578656</v>
+        <v>133.0740275578655</v>
       </c>
       <c r="P36" t="n">
-        <v>84.50414241545053</v>
+        <v>84.50414241545049</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37479,13 +37479,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>35.55545571552457</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.06286192646012</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>195.3065769068295</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>260.4583944746288</v>
       </c>
       <c r="L38" t="n">
-        <v>47.24579619221618</v>
+        <v>47.24579619221612</v>
       </c>
       <c r="M38" t="n">
-        <v>81.73768759914323</v>
+        <v>81.73768759914316</v>
       </c>
       <c r="N38" t="n">
-        <v>76.14873730630117</v>
+        <v>260.4583944746288</v>
       </c>
       <c r="O38" t="n">
-        <v>34.62291276104003</v>
+        <v>177.1163455624352</v>
       </c>
       <c r="P38" t="n">
-        <v>189.5472011835071</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3842258679677</v>
+        <v>182.3842258679676</v>
       </c>
       <c r="R38" t="n">
-        <v>77.1992387931144</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.55033927479341</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59526635964706</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>21.90916223357109</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515622</v>
       </c>
       <c r="L39" t="n">
         <v>118.55713633517</v>
@@ -37631,13 +37631,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N39" t="n">
-        <v>207.0214827210604</v>
+        <v>207.0214827210603</v>
       </c>
       <c r="O39" t="n">
-        <v>133.0740275578656</v>
+        <v>133.0740275578655</v>
       </c>
       <c r="P39" t="n">
-        <v>84.50414241545053</v>
+        <v>84.50414241545049</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>35.55545571552457</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.55545571552457</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,28 +37783,28 @@
         <v>234.312365400124</v>
       </c>
       <c r="L41" t="n">
-        <v>47.24579619221618</v>
+        <v>288.2426111106133</v>
       </c>
       <c r="M41" t="n">
-        <v>81.73768759914323</v>
+        <v>81.73768759914316</v>
       </c>
       <c r="N41" t="n">
-        <v>317.1455522246983</v>
+        <v>282.0100528587752</v>
       </c>
       <c r="O41" t="n">
-        <v>89.16286437200607</v>
+        <v>34.62291276103997</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9531622382198</v>
+        <v>225.9531622382197</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.3213639415076</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.13637686665428</v>
+        <v>46.13637686665426</v>
       </c>
       <c r="S41" t="n">
-        <v>13.48747734833328</v>
+        <v>13.48747734833327</v>
       </c>
       <c r="T41" t="n">
         <v>18.53240443318693</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515622</v>
       </c>
       <c r="L42" t="n">
         <v>118.55713633517</v>
@@ -37868,13 +37868,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N42" t="n">
-        <v>207.0214827210604</v>
+        <v>207.0214827210603</v>
       </c>
       <c r="O42" t="n">
-        <v>133.0740275578656</v>
+        <v>133.0740275578655</v>
       </c>
       <c r="P42" t="n">
-        <v>84.50414241545053</v>
+        <v>84.50414241545049</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63.37989425342911</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>16.96108597698409</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>97.57688070820261</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37962,10 +37962,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.561397289714544</v>
+        <v>5.561397289714542</v>
       </c>
       <c r="T43" t="n">
-        <v>17.23590047778939</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.2437149803694</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>234.312365400124</v>
+        <v>234.3123654001241</v>
       </c>
       <c r="L44" t="n">
         <v>288.2426111106134</v>
       </c>
       <c r="M44" t="n">
-        <v>81.73768759914323</v>
+        <v>81.73768759914324</v>
       </c>
       <c r="N44" t="n">
-        <v>76.14873730630117</v>
+        <v>205.2569529207471</v>
       </c>
       <c r="O44" t="n">
-        <v>89.16286437200607</v>
+        <v>275.6197276794372</v>
       </c>
       <c r="P44" t="n">
         <v>225.9531622382198</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.3213639415076</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.13637686665428</v>
+        <v>46.13637686665429</v>
       </c>
       <c r="S44" t="n">
         <v>13.48747734833328</v>
@@ -38160,10 +38160,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>30.84208728099437</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>72.29619071692277</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>60.00324977086225</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38196,10 +38196,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.57363093734035</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.561397289714545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
